--- a/electronics/worksheets/Open-Boiler.xlsx
+++ b/electronics/worksheets/Open-Boiler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casanovg\source\Repos\GitHub\open-boiler\electronics\worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DDDF57-45CF-4297-AFAD-92CF74613E07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB4F830-7F88-43E2-A8E4-F5F740266C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T7335D Datasheet" sheetId="4" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="100">
   <si>
     <t xml:space="preserve"> NTC thermistor table</t>
   </si>
@@ -485,51 +485,6 @@
   </si>
   <si>
     <t>Knob step 11</t>
-  </si>
-  <si>
-    <t>Knob step 12</t>
-  </si>
-  <si>
-    <t>Knob step 13</t>
-  </si>
-  <si>
-    <t>Knob step 14</t>
-  </si>
-  <si>
-    <t>Knob step 15</t>
-  </si>
-  <si>
-    <t>Knob step 16</t>
-  </si>
-  <si>
-    <t>Knob step 17</t>
-  </si>
-  <si>
-    <t>Knob step 18</t>
-  </si>
-  <si>
-    <t>Knob step 19</t>
-  </si>
-  <si>
-    <t>Knob step 20</t>
-  </si>
-  <si>
-    <t>Knob step 21</t>
-  </si>
-  <si>
-    <t>Knob step 22</t>
-  </si>
-  <si>
-    <t>Knob step 23</t>
-  </si>
-  <si>
-    <t>Knob step 24</t>
-  </si>
-  <si>
-    <t>Knob step 25</t>
-  </si>
-  <si>
-    <t>Knob step 26</t>
   </si>
   <si>
     <t>Min Kcal/h</t>
@@ -1083,7 +1038,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1395,6 +1350,9 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11583,7 +11541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F797FCAE-A1DA-4AA7-AEDC-2E0DED9663A9}">
   <dimension ref="B2:AO36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AG17" sqref="AG17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11606,33 +11566,87 @@
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
+      <c r="O2" s="29">
+        <v>1</v>
+      </c>
+      <c r="P2" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="29">
+        <v>3</v>
+      </c>
+      <c r="R2" s="29">
+        <v>4</v>
+      </c>
+      <c r="S2" s="29">
+        <v>5</v>
+      </c>
+      <c r="T2" s="29">
+        <v>6</v>
+      </c>
+      <c r="U2" s="29">
+        <v>7</v>
+      </c>
+      <c r="V2" s="29">
+        <v>8</v>
+      </c>
+      <c r="W2" s="29">
+        <v>9</v>
+      </c>
+      <c r="X2" s="29">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="29">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="29">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="29">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="29">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="29">
+        <v>14</v>
+      </c>
+      <c r="AD2" s="29">
+        <v>15</v>
+      </c>
+      <c r="AE2" s="29">
+        <v>16</v>
+      </c>
+      <c r="AF2" s="29">
+        <v>17</v>
+      </c>
+      <c r="AG2" s="29">
+        <v>18</v>
+      </c>
+      <c r="AH2" s="29">
+        <v>19</v>
+      </c>
+      <c r="AI2" s="29">
+        <v>20</v>
+      </c>
+      <c r="AJ2" s="29">
+        <v>21</v>
+      </c>
+      <c r="AK2" s="29">
+        <v>22</v>
+      </c>
+      <c r="AL2" s="29">
+        <v>23</v>
+      </c>
+      <c r="AM2" s="29">
+        <v>24</v>
+      </c>
+      <c r="AN2" s="29">
+        <v>25</v>
+      </c>
+      <c r="AO2" s="29">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
@@ -11668,86 +11682,113 @@
       <c r="M3" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="P3" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q3" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="R3" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="S3" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="T3" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="U3" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="W3" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="X3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y3" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z3" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA3" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB3" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC3" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD3" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE3" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF3" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG3" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH3" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI3" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ3" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK3" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL3" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM3" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN3" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO3" s="38" t="s">
-        <v>103</v>
+      <c r="O3" s="181" t="str">
+        <f>CONCATENATE("Knob step ", $K$4 - O2)</f>
+        <v>Knob step 11</v>
+      </c>
+      <c r="P3" s="181" t="str">
+        <f t="shared" ref="P3:T3" si="0">CONCATENATE("Knob step ", $K$4 - P2)</f>
+        <v>Knob step 10</v>
+      </c>
+      <c r="Q3" s="181" t="str">
+        <f t="shared" si="0"/>
+        <v>Knob step 9</v>
+      </c>
+      <c r="R3" s="181" t="str">
+        <f t="shared" si="0"/>
+        <v>Knob step 8</v>
+      </c>
+      <c r="S3" s="181" t="str">
+        <f t="shared" si="0"/>
+        <v>Knob step 7</v>
+      </c>
+      <c r="T3" s="181" t="str">
+        <f t="shared" si="0"/>
+        <v>Knob step 6</v>
+      </c>
+      <c r="U3" s="181" t="str">
+        <f t="shared" ref="U3" si="1">CONCATENATE("Knob step ", $K$4 - U2)</f>
+        <v>Knob step 5</v>
+      </c>
+      <c r="V3" s="181" t="str">
+        <f t="shared" ref="V3" si="2">CONCATENATE("Knob step ", $K$4 - V2)</f>
+        <v>Knob step 4</v>
+      </c>
+      <c r="W3" s="181" t="str">
+        <f t="shared" ref="W3" si="3">CONCATENATE("Knob step ", $K$4 - W2)</f>
+        <v>Knob step 3</v>
+      </c>
+      <c r="X3" s="181" t="str">
+        <f t="shared" ref="X3:Y3" si="4">CONCATENATE("Knob step ", $K$4 - X2)</f>
+        <v>Knob step 2</v>
+      </c>
+      <c r="Y3" s="181" t="str">
+        <f t="shared" si="4"/>
+        <v>Knob step 1</v>
+      </c>
+      <c r="Z3" s="181" t="str">
+        <f t="shared" ref="Z3" si="5">CONCATENATE("Knob step ", $K$4 - Z2)</f>
+        <v>Knob step 0</v>
+      </c>
+      <c r="AA3" s="38" t="str">
+        <f t="shared" ref="AA3" si="6">CONCATENATE("Knob step ", $K$4 - AA2)</f>
+        <v>Knob step -1</v>
+      </c>
+      <c r="AB3" s="38" t="str">
+        <f t="shared" ref="AB3" si="7">CONCATENATE("Knob step ", $K$4 - AB2)</f>
+        <v>Knob step -1</v>
+      </c>
+      <c r="AC3" s="38" t="str">
+        <f t="shared" ref="AC3:AD3" si="8">CONCATENATE("Knob step ", $K$4 - AC2)</f>
+        <v>Knob step -2</v>
+      </c>
+      <c r="AD3" s="38" t="str">
+        <f t="shared" si="8"/>
+        <v>Knob step -3</v>
+      </c>
+      <c r="AE3" s="38" t="str">
+        <f t="shared" ref="AE3" si="9">CONCATENATE("Knob step ", $K$4 - AE2)</f>
+        <v>Knob step -4</v>
+      </c>
+      <c r="AF3" s="38" t="str">
+        <f t="shared" ref="AF3" si="10">CONCATENATE("Knob step ", $K$4 - AF2)</f>
+        <v>Knob step -5</v>
+      </c>
+      <c r="AG3" s="38" t="str">
+        <f t="shared" ref="AG3" si="11">CONCATENATE("Knob step ", $K$4 - AG2)</f>
+        <v>Knob step -6</v>
+      </c>
+      <c r="AH3" s="38" t="str">
+        <f t="shared" ref="AH3:AI3" si="12">CONCATENATE("Knob step ", $K$4 - AH2)</f>
+        <v>Knob step -7</v>
+      </c>
+      <c r="AI3" s="38" t="str">
+        <f t="shared" si="12"/>
+        <v>Knob step -8</v>
+      </c>
+      <c r="AJ3" s="38" t="str">
+        <f t="shared" ref="AJ3" si="13">CONCATENATE("Knob step ", $K$4 - AJ2)</f>
+        <v>Knob step -9</v>
+      </c>
+      <c r="AK3" s="38" t="str">
+        <f t="shared" ref="AK3" si="14">CONCATENATE("Knob step ", $K$4 - AK2)</f>
+        <v>Knob step -10</v>
+      </c>
+      <c r="AL3" s="38" t="str">
+        <f t="shared" ref="AL3" si="15">CONCATENATE("Knob step ", $K$4 - AL2)</f>
+        <v>Knob step -11</v>
+      </c>
+      <c r="AM3" s="38" t="str">
+        <f t="shared" ref="AM3:AN3" si="16">CONCATENATE("Knob step ", $K$4 - AM2)</f>
+        <v>Knob step -12</v>
+      </c>
+      <c r="AN3" s="38" t="str">
+        <f t="shared" si="16"/>
+        <v>Knob step -13</v>
+      </c>
+      <c r="AO3" s="38" t="str">
+        <f t="shared" ref="AO3" si="17">CONCATENATE("Knob step ", $K$4 - AO2)</f>
+        <v>Knob step -14</v>
       </c>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.25">
@@ -11785,16 +11826,16 @@
       <c r="L4" s="29">
         <v>1023</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="87">
         <f>ROUND(L4/(K4),0)</f>
         <v>85</v>
       </c>
       <c r="N4" s="29">
-        <f t="shared" ref="N4:O4" si="0">ROUND(M4/(L4+1),0)</f>
+        <f t="shared" ref="N4:O4" si="18">ROUND(M4/(L4+1),0)</f>
         <v>0</v>
       </c>
       <c r="O4" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P4" s="87">
@@ -11806,95 +11847,95 @@
         <v>170</v>
       </c>
       <c r="R4" s="87">
-        <f t="shared" ref="R4:AN4" si="1">IF(Q4+($M$4)&lt;=$L$4,Q4+($M$4),$L$4)</f>
+        <f t="shared" ref="R4:AN4" si="19">IF(Q4+($M$4)&lt;=$L$4,Q4+($M$4),$L$4)</f>
         <v>255</v>
       </c>
       <c r="S4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>340</v>
       </c>
       <c r="T4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>425</v>
       </c>
       <c r="U4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>510</v>
       </c>
       <c r="V4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>595</v>
       </c>
       <c r="W4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>680</v>
       </c>
       <c r="X4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>765</v>
       </c>
       <c r="Y4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>850</v>
       </c>
       <c r="Z4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>935</v>
       </c>
       <c r="AA4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1020</v>
       </c>
       <c r="AB4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1023</v>
       </c>
       <c r="AC4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1023</v>
       </c>
       <c r="AD4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1023</v>
       </c>
       <c r="AE4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1023</v>
       </c>
       <c r="AF4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1023</v>
       </c>
       <c r="AG4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1023</v>
       </c>
       <c r="AH4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1023</v>
       </c>
       <c r="AI4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1023</v>
       </c>
       <c r="AJ4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1023</v>
       </c>
       <c r="AK4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1023</v>
       </c>
       <c r="AL4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1023</v>
       </c>
       <c r="AM4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1023</v>
       </c>
       <c r="AN4" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1023</v>
       </c>
       <c r="AO4" s="87">
@@ -11917,10 +11958,10 @@
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="38" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
@@ -11929,107 +11970,107 @@
         <v>84</v>
       </c>
       <c r="P5" s="87">
-        <f t="shared" ref="P5:AO5" si="2">IF(P4+($M$4-1)&lt;=$L$4, P4+($M$4-1), $L$4)</f>
+        <f t="shared" ref="P5:AO5" si="20">IF(P4+($M$4-1)&lt;=$L$4, P4+($M$4-1), $L$4)</f>
         <v>169</v>
       </c>
       <c r="Q5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>254</v>
       </c>
       <c r="R5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>339</v>
       </c>
       <c r="S5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>424</v>
       </c>
       <c r="T5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>509</v>
       </c>
       <c r="U5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>594</v>
       </c>
       <c r="V5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>679</v>
       </c>
       <c r="W5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>764</v>
       </c>
       <c r="X5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>849</v>
       </c>
       <c r="Y5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>934</v>
       </c>
       <c r="Z5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>1019</v>
       </c>
       <c r="AA5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>1023</v>
       </c>
       <c r="AB5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>1023</v>
       </c>
       <c r="AC5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>1023</v>
       </c>
       <c r="AD5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>1023</v>
       </c>
       <c r="AE5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>1023</v>
       </c>
       <c r="AF5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>1023</v>
       </c>
       <c r="AG5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>1023</v>
       </c>
       <c r="AH5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>1023</v>
       </c>
       <c r="AI5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>1023</v>
       </c>
       <c r="AJ5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>1023</v>
       </c>
       <c r="AK5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>1023</v>
       </c>
       <c r="AL5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>1023</v>
       </c>
       <c r="AM5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>1023</v>
       </c>
       <c r="AN5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>1023</v>
       </c>
       <c r="AO5" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>1023</v>
       </c>
     </row>
@@ -12104,28 +12145,28 @@
         <v>45</v>
       </c>
       <c r="I8" s="176" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="J8" s="176" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K8" s="176" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="L8" s="176" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="M8" s="176" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="N8" s="176" t="s">
         <v>47</v>
       </c>
       <c r="O8" s="176" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="177" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="R8" s="177"/>
       <c r="S8" s="177"/>
@@ -12152,7 +12193,7 @@
         <v>0.86999999999999988</v>
       </c>
       <c r="I9" s="180">
-        <f t="shared" ref="I9:I36" si="3">SUM(K9:M9)</f>
+        <f t="shared" ref="I9:I36" si="21">SUM(K9:M9)</f>
         <v>100</v>
       </c>
       <c r="J9" s="180">
@@ -12200,7 +12241,7 @@
         <v>0.96833333333333327</v>
       </c>
       <c r="I10" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J10" s="180">
@@ -12216,18 +12257,54 @@
         <v>0</v>
       </c>
       <c r="N10" s="109">
-        <f t="shared" ref="N10:O36" si="4">F10</f>
+        <f t="shared" ref="N10:O36" si="22">F10</f>
         <v>7833.333333333333</v>
       </c>
       <c r="O10" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0.96833333333333327</v>
       </c>
       <c r="Q10" s="145" t="str">
-        <f t="shared" ref="Q10:Q36" si="5">CONCATENATE("{{",K10, ", ", L10, ", ", M10, "}, ",ROUND(N10,0), ", ", ROUND(O10,3),"}, /* Heat level ", J10, " = ",ROUND(N10,0), " Kcal/h */")</f>
+        <f t="shared" ref="Q10:Q36" si="23">CONCATENATE("{{",K10, ", ", L10, ", ", M10, "}, ",ROUND(N10,0), ", ", ROUND(O10,3),"}, /* Heat level ", J10, " = ",ROUND(N10,0), " Kcal/h */")</f>
         <v>{{83, 17, 0}, 7833, 0,968}, /* Heat level 1 = 7833 Kcal/h */</v>
       </c>
       <c r="S10" s="30"/>
+      <c r="V10" s="130" t="s">
+        <v>98</v>
+      </c>
+      <c r="W10" s="130" t="s">
+        <v>79</v>
+      </c>
+      <c r="X10" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y10" s="130" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z10" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA10" s="130" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB10" s="130" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC10" s="130" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD10" s="130" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE10" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF10" s="130" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG10" s="130" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B11" s="120">
@@ -12249,7 +12326,7 @@
         <v>1.0666666666666667</v>
       </c>
       <c r="I11" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J11" s="180">
@@ -12265,18 +12342,67 @@
         <v>0</v>
       </c>
       <c r="N11" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>8666.6666666666661</v>
       </c>
       <c r="O11" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.0666666666666667</v>
       </c>
       <c r="Q11" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{67, 33, 0}, 8667, 1,067}, /* Heat level 2 = 8667 Kcal/h */</v>
       </c>
       <c r="S11" s="30"/>
+      <c r="V11" s="145">
+        <f>$L$4</f>
+        <v>1023</v>
+      </c>
+      <c r="W11" s="80">
+        <f>V12-1</f>
+        <v>937</v>
+      </c>
+      <c r="X11" s="80">
+        <f t="shared" ref="X11:AH11" si="24">W12-1</f>
+        <v>851</v>
+      </c>
+      <c r="Y11" s="80">
+        <f t="shared" si="24"/>
+        <v>765</v>
+      </c>
+      <c r="Z11" s="80">
+        <f t="shared" si="24"/>
+        <v>679</v>
+      </c>
+      <c r="AA11" s="80">
+        <f t="shared" si="24"/>
+        <v>593</v>
+      </c>
+      <c r="AB11" s="80">
+        <f t="shared" si="24"/>
+        <v>507</v>
+      </c>
+      <c r="AC11" s="80">
+        <f t="shared" si="24"/>
+        <v>421</v>
+      </c>
+      <c r="AD11" s="80">
+        <f t="shared" si="24"/>
+        <v>335</v>
+      </c>
+      <c r="AE11" s="80">
+        <f t="shared" si="24"/>
+        <v>249</v>
+      </c>
+      <c r="AF11" s="80">
+        <f t="shared" si="24"/>
+        <v>163</v>
+      </c>
+      <c r="AG11" s="80">
+        <f t="shared" si="24"/>
+        <v>77</v>
+      </c>
+      <c r="AH11" s="80"/>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B12" s="120">
@@ -12298,7 +12424,7 @@
         <v>1.1233333333333333</v>
       </c>
       <c r="I12" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J12" s="180">
@@ -12314,18 +12440,66 @@
         <v>17</v>
       </c>
       <c r="N12" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>9166.6666666666661</v>
       </c>
       <c r="O12" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.1233333333333333</v>
       </c>
       <c r="Q12" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{83, 0, 17}, 9167, 1,123}, /* Heat level 3 = 9167 Kcal/h */</v>
       </c>
       <c r="S12" s="30"/>
+      <c r="V12" s="80">
+        <f>V11-$M$4</f>
+        <v>938</v>
+      </c>
+      <c r="W12" s="80">
+        <f>W11-$M$4</f>
+        <v>852</v>
+      </c>
+      <c r="X12" s="80">
+        <f t="shared" ref="X12:AF12" si="25">X11-$M$4</f>
+        <v>766</v>
+      </c>
+      <c r="Y12" s="80">
+        <f t="shared" si="25"/>
+        <v>680</v>
+      </c>
+      <c r="Z12" s="80">
+        <f t="shared" si="25"/>
+        <v>594</v>
+      </c>
+      <c r="AA12" s="80">
+        <f t="shared" si="25"/>
+        <v>508</v>
+      </c>
+      <c r="AB12" s="80">
+        <f t="shared" si="25"/>
+        <v>422</v>
+      </c>
+      <c r="AC12" s="80">
+        <f t="shared" si="25"/>
+        <v>336</v>
+      </c>
+      <c r="AD12" s="80">
+        <f t="shared" si="25"/>
+        <v>250</v>
+      </c>
+      <c r="AE12" s="80">
+        <f t="shared" si="25"/>
+        <v>164</v>
+      </c>
+      <c r="AF12" s="80">
+        <f t="shared" si="25"/>
+        <v>78</v>
+      </c>
+      <c r="AG12" s="80">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="80"/>
     </row>
     <row r="13" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B13" s="120">
@@ -12347,7 +12521,7 @@
         <v>1.165</v>
       </c>
       <c r="I13" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J13" s="180">
@@ -12363,15 +12537,15 @@
         <v>0</v>
       </c>
       <c r="N13" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>9500</v>
       </c>
       <c r="O13" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.165</v>
       </c>
       <c r="Q13" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{50, 50, 0}, 9500, 1,165}, /* Heat level 4 = 9500 Kcal/h */</v>
       </c>
       <c r="S13" s="30"/>
@@ -12396,7 +12570,7 @@
         <v>1.2216666666666667</v>
       </c>
       <c r="I14" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J14" s="180">
@@ -12412,15 +12586,15 @@
         <v>16</v>
       </c>
       <c r="N14" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>10000</v>
       </c>
       <c r="O14" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.2216666666666667</v>
       </c>
       <c r="Q14" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{67, 17, 16}, 10000, 1,222}, /* Heat level 5 = 10000 Kcal/h */</v>
       </c>
       <c r="S14" s="30"/>
@@ -12445,7 +12619,7 @@
         <v>1.2633333333333332</v>
       </c>
       <c r="I15" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J15" s="180">
@@ -12461,15 +12635,15 @@
         <v>0</v>
       </c>
       <c r="N15" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>10333.333333333332</v>
       </c>
       <c r="O15" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.2633333333333332</v>
       </c>
       <c r="Q15" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{33, 67, 0}, 10333, 1,263}, /* Heat level 6 = 10333 Kcal/h */</v>
       </c>
       <c r="S15" s="30"/>
@@ -12494,7 +12668,7 @@
         <v>1.3199999999999998</v>
       </c>
       <c r="I16" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J16" s="180">
@@ -12510,15 +12684,15 @@
         <v>17</v>
       </c>
       <c r="N16" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>10833.333333333332</v>
       </c>
       <c r="O16" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.3199999999999998</v>
       </c>
       <c r="Q16" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{50, 33, 17}, 10833, 1,32}, /* Heat level 7 = 10833 Kcal/h */</v>
       </c>
       <c r="S16" s="30"/>
@@ -12543,7 +12717,7 @@
         <v>1.3616666666666666</v>
       </c>
       <c r="I17" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J17" s="180">
@@ -12559,15 +12733,15 @@
         <v>0</v>
       </c>
       <c r="N17" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>11166.666666666666</v>
       </c>
       <c r="O17" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.3616666666666666</v>
       </c>
       <c r="Q17" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{17, 83, 0}, 11167, 1,362}, /* Heat level 8 = 11167 Kcal/h */</v>
       </c>
       <c r="S17" s="30"/>
@@ -12592,7 +12766,7 @@
         <v>1.3766666666666665</v>
       </c>
       <c r="I18" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J18" s="180">
@@ -12608,15 +12782,15 @@
         <v>33</v>
       </c>
       <c r="N18" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>11333.333333333332</v>
       </c>
       <c r="O18" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.3766666666666665</v>
       </c>
       <c r="Q18" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{67, 0, 33}, 11333, 1,377}, /* Heat level 9 = 11333 Kcal/h */</v>
       </c>
       <c r="S18" s="30"/>
@@ -12641,7 +12815,7 @@
         <v>1.4183333333333334</v>
       </c>
       <c r="I19" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J19" s="180">
@@ -12657,15 +12831,15 @@
         <v>17</v>
       </c>
       <c r="N19" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>11666.666666666664</v>
       </c>
       <c r="O19" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.4183333333333334</v>
       </c>
       <c r="Q19" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{33, 50, 17}, 11667, 1,418}, /* Heat level 10 = 11667 Kcal/h */</v>
       </c>
       <c r="S19" s="30"/>
@@ -12690,7 +12864,7 @@
         <v>1.4599999999999997</v>
       </c>
       <c r="I20" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J20" s="180">
@@ -12706,15 +12880,15 @@
         <v>0</v>
       </c>
       <c r="N20" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>11999.999999999998</v>
       </c>
       <c r="O20" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.4599999999999997</v>
       </c>
       <c r="Q20" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{0, 100, 0}, 12000, 1,46}, /* Heat level 11 = 12000 Kcal/h */</v>
       </c>
       <c r="S20" s="30"/>
@@ -12739,7 +12913,7 @@
         <v>1.4750000000000001</v>
       </c>
       <c r="I21" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J21" s="180">
@@ -12755,15 +12929,15 @@
         <v>33</v>
       </c>
       <c r="N21" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>12166.666666666666</v>
       </c>
       <c r="O21" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.4750000000000001</v>
       </c>
       <c r="Q21" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{50, 17, 33}, 12167, 1,475}, /* Heat level 12 = 12167 Kcal/h */</v>
       </c>
       <c r="S21" s="30"/>
@@ -12788,7 +12962,7 @@
         <v>1.5166666666666666</v>
       </c>
       <c r="I22" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J22" s="180">
@@ -12804,15 +12978,15 @@
         <v>16</v>
       </c>
       <c r="N22" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>12500</v>
       </c>
       <c r="O22" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.5166666666666666</v>
       </c>
       <c r="Q22" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{17, 67, 16}, 12500, 1,517}, /* Heat level 13 = 12500 Kcal/h */</v>
       </c>
       <c r="S22" s="30"/>
@@ -12837,7 +13011,7 @@
         <v>1.5733333333333333</v>
       </c>
       <c r="I23" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J23" s="180">
@@ -12853,15 +13027,15 @@
         <v>33</v>
       </c>
       <c r="N23" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>13000</v>
       </c>
       <c r="O23" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.5733333333333333</v>
       </c>
       <c r="Q23" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{34, 33, 33}, 13000, 1,573}, /* Heat level 14 = 13000 Kcal/h */</v>
       </c>
       <c r="S23" s="30"/>
@@ -12886,7 +13060,7 @@
         <v>1.6149999999999998</v>
       </c>
       <c r="I24" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J24" s="180">
@@ -12902,15 +13076,15 @@
         <v>17</v>
       </c>
       <c r="N24" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>13333.333333333332</v>
       </c>
       <c r="O24" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.6149999999999998</v>
       </c>
       <c r="Q24" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{0, 83, 17}, 13333, 1,615}, /* Heat level 15 = 13333 Kcal/h */</v>
       </c>
       <c r="S24" s="30"/>
@@ -12935,7 +13109,7 @@
         <v>1.6300000000000001</v>
       </c>
       <c r="I25" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J25" s="180">
@@ -12951,15 +13125,15 @@
         <v>50</v>
       </c>
       <c r="N25" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>13500</v>
       </c>
       <c r="O25" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.6300000000000001</v>
       </c>
       <c r="Q25" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{50, 0, 50}, 13500, 1,63}, /* Heat level 16 = 13500 Kcal/h */</v>
       </c>
       <c r="S25" s="30"/>
@@ -12984,7 +13158,7 @@
         <v>1.6716666666666666</v>
       </c>
       <c r="I26" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J26" s="180">
@@ -13000,15 +13174,15 @@
         <v>33</v>
       </c>
       <c r="N26" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>13833.333333333332</v>
       </c>
       <c r="O26" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.6716666666666666</v>
       </c>
       <c r="Q26" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{17, 50, 33}, 13833, 1,672}, /* Heat level 17 = 13833 Kcal/h */</v>
       </c>
       <c r="S26" s="30"/>
@@ -13033,7 +13207,7 @@
         <v>1.7283333333333335</v>
       </c>
       <c r="I27" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J27" s="180">
@@ -13049,15 +13223,15 @@
         <v>50</v>
       </c>
       <c r="N27" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>14333.333333333332</v>
       </c>
       <c r="O27" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.7283333333333335</v>
       </c>
       <c r="Q27" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{33, 17, 50}, 14333, 1,728}, /* Heat level 18 = 14333 Kcal/h */</v>
       </c>
       <c r="S27" s="30"/>
@@ -13082,7 +13256,7 @@
         <v>1.77</v>
       </c>
       <c r="I28" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J28" s="180">
@@ -13098,15 +13272,15 @@
         <v>33</v>
       </c>
       <c r="N28" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>14666.666666666666</v>
       </c>
       <c r="O28" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.77</v>
       </c>
       <c r="Q28" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{0, 67, 33}, 14667, 1,77}, /* Heat level 19 = 14667 Kcal/h */</v>
       </c>
       <c r="S28" s="30"/>
@@ -13131,7 +13305,7 @@
         <v>1.8266666666666667</v>
       </c>
       <c r="I29" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J29" s="180">
@@ -13147,15 +13321,15 @@
         <v>50</v>
       </c>
       <c r="N29" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>15166.666666666666</v>
       </c>
       <c r="O29" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.8266666666666667</v>
       </c>
       <c r="Q29" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{17, 33, 50}, 15167, 1,827}, /* Heat level 20 = 15167 Kcal/h */</v>
       </c>
       <c r="S29" s="30"/>
@@ -13180,7 +13354,7 @@
         <v>1.8833333333333333</v>
       </c>
       <c r="I30" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J30" s="180">
@@ -13196,15 +13370,15 @@
         <v>67</v>
       </c>
       <c r="N30" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>15666.666666666664</v>
       </c>
       <c r="O30" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.8833333333333333</v>
       </c>
       <c r="Q30" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{33, 0, 67}, 15667, 1,883}, /* Heat level 21 = 15667 Kcal/h */</v>
       </c>
       <c r="S30" s="30"/>
@@ -13229,7 +13403,7 @@
         <v>1.925</v>
       </c>
       <c r="I31" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J31" s="180">
@@ -13245,15 +13419,15 @@
         <v>50</v>
       </c>
       <c r="N31" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>16000</v>
       </c>
       <c r="O31" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.925</v>
       </c>
       <c r="Q31" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{0, 50, 50}, 16000, 1,925}, /* Heat level 22 = 16000 Kcal/h */</v>
       </c>
       <c r="S31" s="30"/>
@@ -13278,7 +13452,7 @@
         <v>1.9816666666666665</v>
       </c>
       <c r="I32" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J32" s="180">
@@ -13294,15 +13468,15 @@
         <v>66</v>
       </c>
       <c r="N32" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>16500</v>
       </c>
       <c r="O32" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.9816666666666665</v>
       </c>
       <c r="Q32" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{17, 17, 66}, 16500, 1,982}, /* Heat level 23 = 16500 Kcal/h */</v>
       </c>
       <c r="S32" s="30"/>
@@ -13327,7 +13501,7 @@
         <v>2.08</v>
       </c>
       <c r="I33" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J33" s="180">
@@ -13343,15 +13517,15 @@
         <v>67</v>
       </c>
       <c r="N33" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>17333.333333333332</v>
       </c>
       <c r="O33" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>2.08</v>
       </c>
       <c r="Q33" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{0, 33, 67}, 17333, 2,08}, /* Heat level 24 = 17333 Kcal/h */</v>
       </c>
       <c r="S33" s="30"/>
@@ -13376,7 +13550,7 @@
         <v>2.1366666666666667</v>
       </c>
       <c r="I34" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J34" s="180">
@@ -13392,15 +13566,15 @@
         <v>83</v>
       </c>
       <c r="N34" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>17833.333333333332</v>
       </c>
       <c r="O34" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>2.1366666666666667</v>
       </c>
       <c r="Q34" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{17, 0, 83}, 17833, 2,137}, /* Heat level 25 = 17833 Kcal/h */</v>
       </c>
       <c r="S34" s="30"/>
@@ -13425,7 +13599,7 @@
         <v>2.2349999999999999</v>
       </c>
       <c r="I35" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J35" s="180">
@@ -13441,15 +13615,15 @@
         <v>83</v>
       </c>
       <c r="N35" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>18666.666666666664</v>
       </c>
       <c r="O35" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>2.2349999999999999</v>
       </c>
       <c r="Q35" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{0, 17, 83}, 18667, 2,235}, /* Heat level 26 = 18667 Kcal/h */</v>
       </c>
       <c r="S35" s="30"/>
@@ -13474,7 +13648,7 @@
         <v>2.3899999999999997</v>
       </c>
       <c r="I36" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="J36" s="180">
@@ -13490,15 +13664,15 @@
         <v>100</v>
       </c>
       <c r="N36" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>19999.999999999996</v>
       </c>
       <c r="O36" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>2.3899999999999997</v>
       </c>
       <c r="Q36" s="145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>{{0, 0, 100}, 20000, 2,39}, /* Heat level 27 = 20000 Kcal/h */</v>
       </c>
       <c r="S36" s="30"/>

--- a/electronics/worksheets/Open-Boiler.xlsx
+++ b/electronics/worksheets/Open-Boiler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casanovg\source\Repos\GitHub\open-boiler\electronics\worksheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcasanova\Source\Repos\GitHub\open-boiler\electronics\worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB4F830-7F88-43E2-A8E4-F5F740266C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F7A0A5-30E4-4808-AE3D-6E68798B6EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T7335D Datasheet" sheetId="4" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="101">
   <si>
     <t xml:space="preserve"> NTC thermistor table</t>
   </si>
@@ -519,6 +519,9 @@
   <si>
     <t>Knob step 3</t>
   </si>
+  <si>
+    <t>ch_water_overheat</t>
+  </si>
 </sst>
 </file>
 
@@ -530,7 +533,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,8 +640,23 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,6 +744,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,7 +1062,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1187,12 +1211,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1233,12 +1251,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1302,27 +1314,6 @@
     <xf numFmtId="2" fontId="0" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1353,6 +1344,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4514,14 +4543,14 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="164"/>
-      <c r="D4" s="163" t="s">
+      <c r="C4" s="168"/>
+      <c r="D4" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="164"/>
+      <c r="E4" s="168"/>
       <c r="G4" s="18" t="str">
         <f>B4</f>
         <v>Temperature</v>
@@ -4586,11 +4615,11 @@
       <c r="N5" s="74">
         <v>0</v>
       </c>
-      <c r="O5" s="99">
+      <c r="O5" s="95">
         <f>(M5/$D$30)-1</f>
         <v>-9.1886608015640303E-2</v>
       </c>
-      <c r="P5" s="99"/>
+      <c r="P5" s="95"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
@@ -4633,11 +4662,11 @@
         <f>(M6/M5)-1</f>
         <v>-6.4585575888051694E-2</v>
       </c>
-      <c r="O6" s="99">
+      <c r="O6" s="95">
         <f t="shared" ref="O6:O22" si="5">(M6/$D$30)-1</f>
         <v>-0.15053763440860213</v>
       </c>
-      <c r="P6" s="99">
+      <c r="P6" s="95">
         <f>(O6/O5)-1</f>
         <v>0.63829787234042468</v>
       </c>
@@ -4683,11 +4712,11 @@
         <f t="shared" ref="N7:N22" si="7">(M7/M6)-1</f>
         <v>-9.551208285385504E-2</v>
       </c>
-      <c r="O7" s="99">
+      <c r="O7" s="95">
         <f t="shared" si="5"/>
         <v>-0.23167155425219943</v>
       </c>
-      <c r="P7" s="99">
+      <c r="P7" s="95">
         <f t="shared" ref="P7:P22" si="8">(O7/O6)-1</f>
         <v>0.53896103896103931</v>
       </c>
@@ -4733,11 +4762,11 @@
         <f t="shared" si="7"/>
         <v>-0.12849872773536897</v>
       </c>
-      <c r="O8" s="99">
+      <c r="O8" s="95">
         <f t="shared" si="5"/>
         <v>-0.33040078201368528</v>
       </c>
-      <c r="P8" s="99">
+      <c r="P8" s="95">
         <f t="shared" si="8"/>
         <v>0.42616033755274274</v>
       </c>
@@ -4783,11 +4812,11 @@
         <f t="shared" si="7"/>
         <v>-0.1635036496350365</v>
       </c>
-      <c r="O9" s="99">
+      <c r="O9" s="95">
         <f t="shared" si="5"/>
         <v>-0.43988269794721413</v>
       </c>
-      <c r="P9" s="99">
+      <c r="P9" s="95">
         <f t="shared" si="8"/>
         <v>0.33136094674556205</v>
       </c>
@@ -4809,7 +4838,7 @@
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="H10" s="100">
+      <c r="H10" s="96">
         <f t="shared" si="3"/>
         <v>10170</v>
       </c>
@@ -4833,11 +4862,11 @@
         <f t="shared" si="7"/>
         <v>-9.9476439790575966E-2</v>
       </c>
-      <c r="O10" s="99">
+      <c r="O10" s="95">
         <f t="shared" si="5"/>
         <v>-0.49560117302052786</v>
       </c>
-      <c r="P10" s="99">
+      <c r="P10" s="95">
         <f t="shared" si="8"/>
         <v>0.12666666666666648</v>
       </c>
@@ -4883,11 +4912,11 @@
         <f t="shared" si="7"/>
         <v>-0.10658914728682167</v>
       </c>
-      <c r="O11" s="99">
+      <c r="O11" s="95">
         <f t="shared" si="5"/>
         <v>-0.54936461388074287</v>
       </c>
-      <c r="P11" s="99">
+      <c r="P11" s="95">
         <f t="shared" si="8"/>
         <v>0.10848126232741606</v>
       </c>
@@ -4933,11 +4962,11 @@
         <f t="shared" si="7"/>
         <v>-0.22125813449023857</v>
       </c>
-      <c r="O12" s="99">
+      <c r="O12" s="95">
         <f t="shared" si="5"/>
         <v>-0.64907135874877808</v>
       </c>
-      <c r="P12" s="99">
+      <c r="P12" s="95">
         <f t="shared" si="8"/>
         <v>0.18149466192170816</v>
       </c>
@@ -4983,11 +5012,11 @@
         <f t="shared" si="7"/>
         <v>-0.23676880222841223</v>
       </c>
-      <c r="O13" s="99">
+      <c r="O13" s="95">
         <f t="shared" si="5"/>
         <v>-0.73216031280547411</v>
       </c>
-      <c r="P13" s="99">
+      <c r="P13" s="95">
         <f t="shared" si="8"/>
         <v>0.12801204819277112</v>
       </c>
@@ -5033,11 +5062,11 @@
         <f t="shared" si="7"/>
         <v>-0.24452554744525545</v>
       </c>
-      <c r="O14" s="99">
+      <c r="O14" s="95">
         <f t="shared" si="5"/>
         <v>-0.79765395894428148</v>
       </c>
-      <c r="P14" s="99">
+      <c r="P14" s="95">
         <f t="shared" si="8"/>
         <v>8.9452603471295022E-2</v>
       </c>
@@ -5083,11 +5112,11 @@
         <f t="shared" si="7"/>
         <v>-0.25120772946859904</v>
       </c>
-      <c r="O15" s="99">
+      <c r="O15" s="95">
         <f t="shared" si="5"/>
         <v>-0.84848484848484851</v>
       </c>
-      <c r="P15" s="99">
+      <c r="P15" s="95">
         <f t="shared" si="8"/>
         <v>6.3725490196078427E-2</v>
       </c>
@@ -5133,11 +5162,11 @@
         <f t="shared" si="7"/>
         <v>-0.25161290322580643</v>
       </c>
-      <c r="O16" s="99">
+      <c r="O16" s="95">
         <f t="shared" si="5"/>
         <v>-0.88660801564027369</v>
       </c>
-      <c r="P16" s="99">
+      <c r="P16" s="95">
         <f t="shared" si="8"/>
         <v>4.4930875576036922E-2</v>
       </c>
@@ -5183,11 +5212,11 @@
         <f t="shared" si="7"/>
         <v>-0.13793103448275867</v>
       </c>
-      <c r="O17" s="99">
+      <c r="O17" s="95">
         <f t="shared" si="5"/>
         <v>-0.90224828934506351</v>
       </c>
-      <c r="P17" s="99">
+      <c r="P17" s="95">
         <f t="shared" si="8"/>
         <v>1.7640573318632891E-2</v>
       </c>
@@ -5233,11 +5262,11 @@
         <f t="shared" si="7"/>
         <v>-0.13</v>
       </c>
-      <c r="O18" s="99">
+      <c r="O18" s="95">
         <f t="shared" si="5"/>
         <v>-0.91495601173020524</v>
       </c>
-      <c r="P18" s="99">
+      <c r="P18" s="95">
         <f t="shared" si="8"/>
         <v>1.4084507042253502E-2</v>
       </c>
@@ -5283,11 +5312,11 @@
         <f t="shared" si="7"/>
         <v>-0.24137931034482762</v>
       </c>
-      <c r="O19" s="99">
+      <c r="O19" s="95">
         <f t="shared" si="5"/>
         <v>-0.93548387096774199</v>
       </c>
-      <c r="P19" s="99">
+      <c r="P19" s="95">
         <f t="shared" si="8"/>
         <v>2.2435897435897578E-2</v>
       </c>
@@ -5333,11 +5362,11 @@
         <f t="shared" si="7"/>
         <v>-0.24242424242424243</v>
       </c>
-      <c r="O20" s="99">
+      <c r="O20" s="95">
         <f t="shared" si="5"/>
         <v>-0.95112414467253181</v>
       </c>
-      <c r="P20" s="99">
+      <c r="P20" s="95">
         <f t="shared" si="8"/>
         <v>1.6718913270637348E-2</v>
       </c>
@@ -5383,11 +5412,11 @@
         <f t="shared" si="7"/>
         <v>-0.21999999999999997</v>
       </c>
-      <c r="O21" s="99">
+      <c r="O21" s="95">
         <f t="shared" si="5"/>
         <v>-0.96187683284457481</v>
       </c>
-      <c r="P21" s="99">
+      <c r="P21" s="95">
         <f t="shared" si="8"/>
         <v>1.1305241521068821E-2</v>
       </c>
@@ -5433,11 +5462,11 @@
         <f t="shared" si="7"/>
         <v>-0.12820512820512819</v>
       </c>
-      <c r="O22" s="99">
+      <c r="O22" s="95">
         <f t="shared" si="5"/>
         <v>-0.96676441837732163</v>
       </c>
-      <c r="P22" s="99">
+      <c r="P22" s="95">
         <f t="shared" si="8"/>
         <v>5.0813008130081716E-3</v>
       </c>
@@ -5788,10 +5817,10 @@
       <c r="B2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="113" t="s">
         <v>49</v>
       </c>
       <c r="F2" s="38" t="s">
@@ -5815,7 +5844,7 @@
       <c r="L2" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="121" t="s">
+      <c r="M2" s="113" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5826,31 +5855,31 @@
       <c r="C3" s="35">
         <v>560</v>
       </c>
-      <c r="D3" s="131" t="s">
+      <c r="D3" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="124">
+      <c r="F3" s="116">
         <v>1</v>
       </c>
-      <c r="G3" s="125">
-        <v>0</v>
-      </c>
-      <c r="H3" s="125">
-        <v>0</v>
-      </c>
-      <c r="I3" s="125">
+      <c r="G3" s="117">
+        <v>0</v>
+      </c>
+      <c r="H3" s="117">
+        <v>0</v>
+      </c>
+      <c r="I3" s="117">
         <v>0.99990000000000001</v>
       </c>
-      <c r="J3" s="125">
+      <c r="J3" s="117">
         <v>0.99990000000000001</v>
       </c>
-      <c r="K3" s="126">
+      <c r="K3" s="118">
         <v>6999.3</v>
       </c>
-      <c r="L3" s="127">
+      <c r="L3" s="119">
         <v>0.86991300000000005</v>
       </c>
-      <c r="M3" s="128">
+      <c r="M3" s="120">
         <v>7000</v>
       </c>
     </row>
@@ -5861,31 +5890,31 @@
       <c r="C4" s="35">
         <v>373</v>
       </c>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="123" t="s">
         <v>57</v>
       </c>
       <c r="F4" s="29">
         <v>2</v>
       </c>
-      <c r="G4" s="120">
-        <v>0</v>
-      </c>
-      <c r="H4" s="120">
+      <c r="G4" s="112">
+        <v>0</v>
+      </c>
+      <c r="H4" s="112">
         <v>0.33329999999999999</v>
       </c>
-      <c r="I4" s="120">
+      <c r="I4" s="112">
         <v>0.66659999999999997</v>
       </c>
-      <c r="J4" s="120">
+      <c r="J4" s="112">
         <v>0.99990000000000001</v>
       </c>
-      <c r="K4" s="109">
+      <c r="K4" s="105">
         <v>8665.7999999999993</v>
       </c>
       <c r="L4" s="83">
         <v>1.06656</v>
       </c>
-      <c r="M4" s="129">
+      <c r="M4" s="121">
         <v>8500</v>
       </c>
     </row>
@@ -5896,31 +5925,31 @@
       <c r="C5" s="35">
         <v>330</v>
       </c>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="123" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="29">
         <v>3</v>
       </c>
-      <c r="G5" s="120">
-        <v>0</v>
-      </c>
-      <c r="H5" s="120">
+      <c r="G5" s="112">
+        <v>0</v>
+      </c>
+      <c r="H5" s="112">
         <v>0.66659999999999997</v>
       </c>
-      <c r="I5" s="120">
+      <c r="I5" s="112">
         <v>0.33329999999999999</v>
       </c>
-      <c r="J5" s="120">
+      <c r="J5" s="112">
         <v>0.99990000000000001</v>
       </c>
-      <c r="K5" s="109">
+      <c r="K5" s="105">
         <v>10332.299999999999</v>
       </c>
       <c r="L5" s="83">
         <v>1.263207</v>
       </c>
-      <c r="M5" s="129">
+      <c r="M5" s="121">
         <v>10000</v>
       </c>
     </row>
@@ -5928,51 +5957,51 @@
       <c r="F6" s="29">
         <v>4</v>
       </c>
-      <c r="G6" s="120">
+      <c r="G6" s="112">
         <v>0.33329999999999999</v>
       </c>
-      <c r="H6" s="120">
-        <v>0</v>
-      </c>
-      <c r="I6" s="120">
+      <c r="H6" s="112">
+        <v>0</v>
+      </c>
+      <c r="I6" s="112">
         <v>0.66659999999999997</v>
       </c>
-      <c r="J6" s="120">
+      <c r="J6" s="112">
         <v>0.99990000000000001</v>
       </c>
-      <c r="K6" s="109">
+      <c r="K6" s="105">
         <v>11332.2</v>
       </c>
       <c r="L6" s="83">
         <v>1.3765290000000001</v>
       </c>
-      <c r="M6" s="129">
+      <c r="M6" s="121">
         <v>11000</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F7" s="124">
+      <c r="F7" s="116">
         <v>5</v>
       </c>
-      <c r="G7" s="125">
-        <v>0</v>
-      </c>
-      <c r="H7" s="125">
+      <c r="G7" s="117">
+        <v>0</v>
+      </c>
+      <c r="H7" s="117">
         <v>0.99990000000000001</v>
       </c>
-      <c r="I7" s="125">
-        <v>0</v>
-      </c>
-      <c r="J7" s="125">
+      <c r="I7" s="117">
+        <v>0</v>
+      </c>
+      <c r="J7" s="117">
         <v>0.99990000000000001</v>
       </c>
-      <c r="K7" s="126">
+      <c r="K7" s="118">
         <v>11998.8</v>
       </c>
-      <c r="L7" s="127">
+      <c r="L7" s="119">
         <v>1.459854</v>
       </c>
-      <c r="M7" s="128">
+      <c r="M7" s="120">
         <v>12000</v>
       </c>
     </row>
@@ -5980,25 +6009,25 @@
       <c r="F8" s="29">
         <v>6</v>
       </c>
-      <c r="G8" s="120">
+      <c r="G8" s="112">
         <v>0.33329999999999999</v>
       </c>
-      <c r="H8" s="120">
+      <c r="H8" s="112">
         <v>0.33329999999999999</v>
       </c>
-      <c r="I8" s="120">
+      <c r="I8" s="112">
         <v>0.33329999999999999</v>
       </c>
-      <c r="J8" s="120">
+      <c r="J8" s="112">
         <v>0.99990000000000001</v>
       </c>
-      <c r="K8" s="109">
+      <c r="K8" s="105">
         <v>12998.7</v>
       </c>
       <c r="L8" s="83">
         <v>1.5731760000000001</v>
       </c>
-      <c r="M8" s="129">
+      <c r="M8" s="121">
         <v>13000</v>
       </c>
     </row>
@@ -6006,25 +6035,25 @@
       <c r="F9" s="29">
         <v>7</v>
       </c>
-      <c r="G9" s="120">
+      <c r="G9" s="112">
         <v>0.33329999999999999</v>
       </c>
-      <c r="H9" s="120">
+      <c r="H9" s="112">
         <v>0.66659999999999997</v>
       </c>
-      <c r="I9" s="120">
-        <v>0</v>
-      </c>
-      <c r="J9" s="120">
+      <c r="I9" s="112">
+        <v>0</v>
+      </c>
+      <c r="J9" s="112">
         <v>0.99990000000000001</v>
       </c>
-      <c r="K9" s="109">
+      <c r="K9" s="105">
         <v>14665.2</v>
       </c>
       <c r="L9" s="83">
         <v>1.7698229999999999</v>
       </c>
-      <c r="M9" s="129">
+      <c r="M9" s="121">
         <v>14500</v>
       </c>
     </row>
@@ -6032,25 +6061,25 @@
       <c r="F10" s="29">
         <v>8</v>
       </c>
-      <c r="G10" s="120">
+      <c r="G10" s="112">
         <v>0.66659999999999997</v>
       </c>
-      <c r="H10" s="120">
-        <v>0</v>
-      </c>
-      <c r="I10" s="120">
+      <c r="H10" s="112">
+        <v>0</v>
+      </c>
+      <c r="I10" s="112">
         <v>0.33329999999999999</v>
       </c>
-      <c r="J10" s="120">
+      <c r="J10" s="112">
         <v>0.99990000000000001</v>
       </c>
-      <c r="K10" s="109">
+      <c r="K10" s="105">
         <v>15665.1</v>
       </c>
       <c r="L10" s="83">
         <v>1.8831450000000001</v>
       </c>
-      <c r="M10" s="129">
+      <c r="M10" s="121">
         <v>15500</v>
       </c>
     </row>
@@ -6058,25 +6087,25 @@
       <c r="F11" s="29">
         <v>9</v>
       </c>
-      <c r="G11" s="120">
+      <c r="G11" s="112">
         <v>0.66659999999999997</v>
       </c>
-      <c r="H11" s="120">
+      <c r="H11" s="112">
         <v>0.33329999999999999</v>
       </c>
-      <c r="I11" s="120">
-        <v>0</v>
-      </c>
-      <c r="J11" s="120">
+      <c r="I11" s="112">
+        <v>0</v>
+      </c>
+      <c r="J11" s="112">
         <v>0.99990000000000001</v>
       </c>
-      <c r="K11" s="109">
+      <c r="K11" s="105">
         <v>17331.599999999999</v>
       </c>
       <c r="L11" s="83">
         <v>2.0797919999999999</v>
       </c>
-      <c r="M11" s="129">
+      <c r="M11" s="121">
         <v>17000</v>
       </c>
     </row>
@@ -6087,31 +6116,31 @@
       <c r="C12">
         <v>360</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="124">
+      <c r="F12" s="116">
         <v>10</v>
       </c>
-      <c r="G12" s="125">
+      <c r="G12" s="117">
         <v>0.99990000000000001</v>
       </c>
-      <c r="H12" s="125">
-        <v>0</v>
-      </c>
-      <c r="I12" s="125">
-        <v>0</v>
-      </c>
-      <c r="J12" s="125">
+      <c r="H12" s="117">
+        <v>0</v>
+      </c>
+      <c r="I12" s="117">
+        <v>0</v>
+      </c>
+      <c r="J12" s="117">
         <v>0.99990000000000001</v>
       </c>
-      <c r="K12" s="126">
+      <c r="K12" s="118">
         <v>19998</v>
       </c>
-      <c r="L12" s="127">
+      <c r="L12" s="119">
         <v>2.389761</v>
       </c>
-      <c r="M12" s="128">
+      <c r="M12" s="120">
         <v>20000</v>
       </c>
     </row>
@@ -6121,16 +6150,16 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F16" s="130" t="s">
+      <c r="F16" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="130" t="s">
+      <c r="G16" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="130" t="s">
+      <c r="H16" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="130" t="s">
+      <c r="I16" s="122" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6233,14 +6262,14 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="165" t="s">
+      <c r="C4" s="170"/>
+      <c r="D4" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="166"/>
+      <c r="E4" s="170"/>
       <c r="G4" s="22" t="str">
         <f>B4</f>
         <v>Temperature</v>
@@ -6672,10 +6701,10 @@
       <c r="E21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="167" t="s">
+      <c r="G21" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="168"/>
+      <c r="H21" s="172"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
@@ -6915,10 +6944,10 @@
       <c r="B2" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="113" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6931,10 +6960,10 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="134" t="s">
         <v>65</v>
       </c>
       <c r="E4">
@@ -6942,10 +6971,10 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="143">
+      <c r="C5" s="135">
         <v>6000</v>
       </c>
       <c r="E5">
@@ -6953,10 +6982,10 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="143">
+      <c r="C6" s="135">
         <v>3000</v>
       </c>
       <c r="E6">
@@ -6979,14 +7008,14 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="141"/>
-      <c r="E10" s="141">
+      <c r="C10" s="133"/>
+      <c r="E10" s="133">
         <v>324</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="141"/>
-      <c r="E11" s="141">
+      <c r="C11" s="133"/>
+      <c r="E11" s="133">
         <v>325</v>
       </c>
       <c r="F11">
@@ -6994,22 +7023,22 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="141">
+      <c r="E12" s="133">
         <v>326</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="141"/>
-      <c r="E13" s="141">
+      <c r="C13" s="133"/>
+      <c r="E13" s="133">
         <v>327</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="141"/>
-      <c r="E14" s="141">
+      <c r="C14" s="133"/>
+      <c r="E14" s="133">
         <v>328</v>
       </c>
     </row>
@@ -7033,9 +7062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B29436D-DFE2-4DAF-A0BC-2A553066C113}">
   <dimension ref="B2:X148"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7069,19 +7096,19 @@
       <c r="G2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="98" t="s">
+      <c r="K2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="98" t="s">
+      <c r="L2" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="98" t="s">
+      <c r="M2" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="98" t="s">
+      <c r="N2" s="94" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7107,22 +7134,22 @@
         <v>929</v>
       </c>
       <c r="H3" s="81"/>
-      <c r="J3" s="112">
+      <c r="J3" s="108">
         <f>C3</f>
         <v>-20</v>
       </c>
-      <c r="K3" s="112">
+      <c r="K3" s="108">
         <f>G3</f>
         <v>929</v>
       </c>
-      <c r="L3" s="112">
+      <c r="L3" s="108">
         <f>ROUND(K3,0)</f>
         <v>929</v>
       </c>
-      <c r="M3" s="113" t="s">
+      <c r="M3" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="113" t="s">
+      <c r="N3" s="109" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="81"/>
@@ -7367,7 +7394,7 @@
         <f t="shared" si="4"/>
         <v>899</v>
       </c>
-      <c r="M8" s="96" t="str">
+      <c r="M8" s="92" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
@@ -7607,23 +7634,23 @@
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="J13" s="112">
+      <c r="J13" s="108">
         <f>C4</f>
         <v>-10</v>
       </c>
-      <c r="K13" s="112">
+      <c r="K13" s="108">
         <f>G4</f>
         <v>869</v>
       </c>
-      <c r="L13" s="112">
+      <c r="L13" s="108">
         <f t="shared" si="4"/>
         <v>869</v>
       </c>
-      <c r="M13" s="114" t="str">
+      <c r="M13" s="110" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="N13" s="115">
+      <c r="N13" s="111">
         <f t="shared" si="6"/>
         <v>-6.857142857142895E-3</v>
       </c>
@@ -8022,23 +8049,23 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J23" s="112">
+      <c r="J23" s="108">
         <f>C5</f>
         <v>0</v>
       </c>
-      <c r="K23" s="112">
+      <c r="K23" s="108">
         <f>G5</f>
         <v>786</v>
       </c>
-      <c r="L23" s="112">
+      <c r="L23" s="108">
         <f t="shared" si="4"/>
         <v>786</v>
       </c>
-      <c r="M23" s="114" t="str">
+      <c r="M23" s="110" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="N23" s="115">
+      <c r="N23" s="111">
         <f t="shared" si="6"/>
         <v>-1.0075566750629705E-2</v>
       </c>
@@ -8233,23 +8260,23 @@
       </c>
     </row>
     <row r="33" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J33" s="112">
+      <c r="J33" s="108">
         <f>C6</f>
         <v>10</v>
       </c>
-      <c r="K33" s="112">
+      <c r="K33" s="108">
         <f>G6</f>
         <v>685</v>
       </c>
-      <c r="L33" s="112">
+      <c r="L33" s="108">
         <f t="shared" si="4"/>
         <v>685</v>
       </c>
-      <c r="M33" s="114" t="str">
+      <c r="M33" s="110" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="N33" s="115">
+      <c r="N33" s="111">
         <f t="shared" si="6"/>
         <v>-1.4388489208633115E-2</v>
       </c>
@@ -8444,23 +8471,23 @@
       </c>
     </row>
     <row r="43" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J43" s="112">
+      <c r="J43" s="108">
         <f>C7</f>
         <v>20</v>
       </c>
-      <c r="K43" s="112">
+      <c r="K43" s="108">
         <f>G7</f>
         <v>573</v>
       </c>
-      <c r="L43" s="112">
+      <c r="L43" s="108">
         <f t="shared" si="4"/>
         <v>573</v>
       </c>
-      <c r="M43" s="114" t="str">
+      <c r="M43" s="110" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="N43" s="115">
+      <c r="N43" s="111">
         <f t="shared" si="6"/>
         <v>-1.8835616438356184E-2</v>
       </c>
@@ -8550,28 +8577,28 @@
       </c>
     </row>
     <row r="48" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J48" s="112">
+      <c r="J48" s="108">
         <f>C8</f>
         <v>25</v>
       </c>
-      <c r="K48" s="112">
+      <c r="K48" s="108">
         <f>G8</f>
         <v>516</v>
       </c>
-      <c r="L48" s="112">
+      <c r="L48" s="108">
         <f t="shared" si="4"/>
         <v>516</v>
       </c>
-      <c r="M48" s="114" t="str">
+      <c r="M48" s="110" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="N48" s="115">
+      <c r="N48" s="111">
         <f t="shared" si="6"/>
         <v>-2.0872865275142316E-2</v>
       </c>
     </row>
-    <row r="49" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:16" x14ac:dyDescent="0.25">
       <c r="J49">
         <v>26</v>
       </c>
@@ -8592,7 +8619,7 @@
         <v>-2.1317829457364379E-2</v>
       </c>
     </row>
-    <row r="50" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:16" x14ac:dyDescent="0.25">
       <c r="J50">
         <v>27</v>
       </c>
@@ -8613,7 +8640,7 @@
         <v>-2.1782178217821802E-2</v>
       </c>
     </row>
-    <row r="51" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:16" x14ac:dyDescent="0.25">
       <c r="J51">
         <v>28</v>
       </c>
@@ -8634,7 +8661,7 @@
         <v>-2.2267206477732837E-2</v>
       </c>
     </row>
-    <row r="52" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:16" x14ac:dyDescent="0.25">
       <c r="J52">
         <v>29</v>
       </c>
@@ -8655,29 +8682,29 @@
         <v>-2.2774327122153215E-2</v>
       </c>
     </row>
-    <row r="53" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="J53" s="112">
+    <row r="53" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="J53" s="108">
         <f>C9</f>
         <v>30</v>
       </c>
-      <c r="K53" s="112">
+      <c r="K53" s="108">
         <f>G9</f>
         <v>461</v>
       </c>
-      <c r="L53" s="112">
+      <c r="L53" s="108">
         <f t="shared" si="4"/>
         <v>461</v>
       </c>
-      <c r="M53" s="114" t="str">
+      <c r="M53" s="110" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="N53" s="115">
+      <c r="N53" s="111">
         <f t="shared" si="6"/>
         <v>-2.3305084745762761E-2</v>
       </c>
     </row>
-    <row r="54" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:16" x14ac:dyDescent="0.25">
       <c r="J54">
         <v>31</v>
       </c>
@@ -8698,7 +8725,7 @@
         <v>-2.1691973969631184E-2</v>
       </c>
     </row>
-    <row r="55" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:16" x14ac:dyDescent="0.25">
       <c r="J55">
         <v>32</v>
       </c>
@@ -8719,7 +8746,7 @@
         <v>-2.2172949002217335E-2</v>
       </c>
     </row>
-    <row r="56" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:16" x14ac:dyDescent="0.25">
       <c r="J56">
         <v>33</v>
       </c>
@@ -8740,7 +8767,7 @@
         <v>-2.4943310657596363E-2</v>
       </c>
     </row>
-    <row r="57" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:16" x14ac:dyDescent="0.25">
       <c r="J57">
         <v>34</v>
       </c>
@@ -8761,7 +8788,7 @@
         <v>-2.3255813953488413E-2</v>
       </c>
     </row>
-    <row r="58" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:16" x14ac:dyDescent="0.25">
       <c r="J58">
         <v>35</v>
       </c>
@@ -8782,7 +8809,7 @@
         <v>-2.3809523809523836E-2</v>
       </c>
     </row>
-    <row r="59" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:16" x14ac:dyDescent="0.25">
       <c r="J59">
         <v>36</v>
       </c>
@@ -8803,7 +8830,7 @@
         <v>-2.4390243902439046E-2</v>
       </c>
     </row>
-    <row r="60" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:16" x14ac:dyDescent="0.25">
       <c r="J60">
         <v>37</v>
       </c>
@@ -8824,54 +8851,58 @@
         <v>-2.5000000000000022E-2</v>
       </c>
     </row>
-    <row r="61" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G61" s="35" t="s">
         <v>62</v>
       </c>
       <c r="H61" s="35"/>
       <c r="I61" s="35"/>
-      <c r="J61" s="133">
+      <c r="J61" s="125">
         <v>38</v>
       </c>
-      <c r="K61" s="132">
+      <c r="K61" s="124">
         <f t="shared" si="11"/>
         <v>379.40000000000009</v>
       </c>
-      <c r="L61" s="132">
+      <c r="L61" s="124">
         <f t="shared" si="4"/>
         <v>379</v>
       </c>
-      <c r="M61" s="134" t="str">
+      <c r="M61" s="126" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="N61" s="135">
+      <c r="N61" s="127">
         <f t="shared" si="6"/>
         <v>-2.8205128205128216E-2</v>
       </c>
-    </row>
-    <row r="62" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="J62">
+      <c r="P61" s="173" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="J62" s="97">
         <v>39</v>
       </c>
-      <c r="K62" s="86">
+      <c r="K62" s="98">
         <f t="shared" si="11"/>
         <v>369.2000000000001</v>
       </c>
-      <c r="L62" s="80">
+      <c r="L62" s="98">
         <f t="shared" si="4"/>
         <v>369</v>
       </c>
-      <c r="M62" s="87" t="str">
+      <c r="M62" s="99" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="N62" s="90">
+      <c r="N62" s="100">
         <f t="shared" si="6"/>
         <v>-2.6385224274406371E-2</v>
       </c>
-    </row>
-    <row r="63" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="P62" s="173"/>
+    </row>
+    <row r="63" spans="7:16" x14ac:dyDescent="0.25">
       <c r="J63" s="84">
         <f>C10</f>
         <v>40</v>
@@ -8892,204 +8923,205 @@
         <f t="shared" si="6"/>
         <v>-2.7100271002710064E-2</v>
       </c>
-    </row>
-    <row r="64" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="J64" s="92">
+      <c r="P63" s="173"/>
+    </row>
+    <row r="64" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="J64" s="97">
         <v>41</v>
       </c>
-      <c r="K64" s="93">
+      <c r="K64" s="98">
         <f t="shared" ref="K64:K72" si="12">K63-($H$11/$B$11)</f>
         <v>350.5</v>
       </c>
-      <c r="L64" s="93">
+      <c r="L64" s="98">
         <f t="shared" si="4"/>
         <v>351</v>
       </c>
-      <c r="M64" s="94" t="str">
+      <c r="M64" s="99" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="N64" s="95">
+      <c r="N64" s="100">
         <f t="shared" si="6"/>
         <v>-2.2284122562674091E-2</v>
       </c>
+      <c r="P64" s="173"/>
     </row>
     <row r="65" spans="7:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J65" s="116">
+      <c r="J65" s="97">
         <v>42</v>
       </c>
-      <c r="K65" s="117">
+      <c r="K65" s="98">
         <f t="shared" si="12"/>
         <v>342</v>
       </c>
-      <c r="L65" s="117">
+      <c r="L65" s="98">
         <f t="shared" si="4"/>
         <v>342</v>
       </c>
-      <c r="M65" s="118" t="str">
+      <c r="M65" s="99" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="N65" s="119">
+      <c r="N65" s="100">
         <f t="shared" si="6"/>
         <v>-2.5641025641025661E-2</v>
       </c>
-    </row>
-    <row r="66" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="J66" s="101">
+      <c r="P65" s="173"/>
+    </row>
+    <row r="66" spans="7:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J66" s="97">
         <v>43</v>
       </c>
-      <c r="K66" s="102">
+      <c r="K66" s="98">
         <f t="shared" si="12"/>
         <v>333.5</v>
       </c>
-      <c r="L66" s="102">
+      <c r="L66" s="98">
         <f t="shared" si="4"/>
         <v>334</v>
       </c>
-      <c r="M66" s="103" t="str">
+      <c r="M66" s="99" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="N66" s="104">
+      <c r="N66" s="100">
         <f t="shared" si="6"/>
         <v>-2.3391812865497075E-2</v>
       </c>
-      <c r="P66" s="169" t="s">
-        <v>32</v>
-      </c>
+      <c r="P66" s="173"/>
     </row>
     <row r="67" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="J67" s="101">
+      <c r="J67" s="97">
         <v>44</v>
       </c>
-      <c r="K67" s="102">
+      <c r="K67" s="98">
         <f t="shared" si="12"/>
         <v>325</v>
       </c>
-      <c r="L67" s="102">
+      <c r="L67" s="98">
         <f t="shared" si="4"/>
         <v>325</v>
       </c>
-      <c r="M67" s="103" t="str">
+      <c r="M67" s="99" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="N67" s="104">
+      <c r="N67" s="100">
         <f t="shared" si="6"/>
         <v>-2.6946107784431184E-2</v>
       </c>
-      <c r="P67" s="169"/>
+      <c r="P67" s="173"/>
     </row>
     <row r="68" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="J68" s="101">
+      <c r="J68" s="97">
         <v>45</v>
       </c>
-      <c r="K68" s="102">
+      <c r="K68" s="98">
         <f t="shared" si="12"/>
         <v>316.5</v>
       </c>
-      <c r="L68" s="102">
+      <c r="L68" s="98">
         <f t="shared" si="4"/>
         <v>317</v>
       </c>
-      <c r="M68" s="103" t="str">
+      <c r="M68" s="99" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="N68" s="104">
+      <c r="N68" s="100">
         <f t="shared" si="6"/>
         <v>-2.4615384615384595E-2</v>
       </c>
-      <c r="P68" s="169"/>
+      <c r="P68" s="173"/>
     </row>
     <row r="69" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="J69" s="101">
+      <c r="J69" s="97">
         <v>46</v>
       </c>
-      <c r="K69" s="102">
+      <c r="K69" s="98">
         <f t="shared" si="12"/>
         <v>308</v>
       </c>
-      <c r="L69" s="102">
+      <c r="L69" s="98">
         <f t="shared" ref="L69:L132" si="13">ROUND(K69,0)</f>
         <v>308</v>
       </c>
-      <c r="M69" s="103" t="str">
+      <c r="M69" s="99" t="str">
         <f t="shared" ref="M69:M132" si="14">IF(L69&lt;L68,"OK","Too small")</f>
         <v>OK</v>
       </c>
-      <c r="N69" s="104">
+      <c r="N69" s="100">
         <f t="shared" ref="N69:N132" si="15">(L69/L68)-1</f>
         <v>-2.8391167192429068E-2</v>
       </c>
-      <c r="P69" s="169"/>
+      <c r="P69" s="173"/>
     </row>
     <row r="70" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="J70" s="101">
+      <c r="J70" s="97">
         <v>47</v>
       </c>
-      <c r="K70" s="102">
+      <c r="K70" s="98">
         <f t="shared" si="12"/>
         <v>299.5</v>
       </c>
-      <c r="L70" s="102">
+      <c r="L70" s="98">
         <f t="shared" si="13"/>
         <v>300</v>
       </c>
-      <c r="M70" s="103" t="str">
+      <c r="M70" s="99" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N70" s="104">
+      <c r="N70" s="100">
         <f t="shared" si="15"/>
         <v>-2.5974025974025983E-2</v>
       </c>
-      <c r="P70" s="169"/>
+      <c r="P70" s="173"/>
     </row>
     <row r="71" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="J71" s="101">
+      <c r="J71" s="97">
         <v>48</v>
       </c>
-      <c r="K71" s="102">
+      <c r="K71" s="98">
         <f t="shared" si="12"/>
         <v>291</v>
       </c>
-      <c r="L71" s="102">
+      <c r="L71" s="98">
         <f t="shared" si="13"/>
         <v>291</v>
       </c>
-      <c r="M71" s="103" t="str">
+      <c r="M71" s="99" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N71" s="104">
+      <c r="N71" s="100">
         <f t="shared" si="15"/>
         <v>-3.0000000000000027E-2</v>
       </c>
-      <c r="P71" s="169"/>
+      <c r="P71" s="173"/>
     </row>
     <row r="72" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="J72" s="101">
+      <c r="J72" s="97">
         <v>49</v>
       </c>
-      <c r="K72" s="102">
+      <c r="K72" s="98">
         <f t="shared" si="12"/>
         <v>282.5</v>
       </c>
-      <c r="L72" s="102">
+      <c r="L72" s="98">
         <f t="shared" si="13"/>
         <v>283</v>
       </c>
-      <c r="M72" s="103" t="str">
+      <c r="M72" s="99" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N72" s="104">
+      <c r="N72" s="100">
         <f t="shared" si="15"/>
         <v>-2.7491408934707917E-2</v>
       </c>
-      <c r="P72" s="169"/>
+      <c r="P72" s="173"/>
       <c r="V72" t="s">
         <v>13</v>
       </c>
@@ -9098,27 +9130,27 @@
       </c>
     </row>
     <row r="73" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="J73" s="105">
+      <c r="J73" s="101">
         <f>C11</f>
         <v>50</v>
       </c>
-      <c r="K73" s="105">
+      <c r="K73" s="101">
         <f>G11</f>
         <v>274</v>
       </c>
-      <c r="L73" s="105">
+      <c r="L73" s="101">
         <f t="shared" si="13"/>
         <v>274</v>
       </c>
-      <c r="M73" s="106" t="str">
+      <c r="M73" s="102" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N73" s="107">
+      <c r="N73" s="103">
         <f t="shared" si="15"/>
         <v>-3.180212014134276E-2</v>
       </c>
-      <c r="P73" s="169"/>
+      <c r="P73" s="173"/>
       <c r="V73">
         <v>257</v>
       </c>
@@ -9130,48 +9162,48 @@
       </c>
     </row>
     <row r="74" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="J74" s="101">
+      <c r="J74" s="97">
         <v>51</v>
       </c>
-      <c r="K74" s="102">
+      <c r="K74" s="98">
         <f t="shared" ref="K74:K82" si="16">K73-($H$12/$B$12)</f>
         <v>267.3</v>
       </c>
-      <c r="L74" s="102">
+      <c r="L74" s="98">
         <f t="shared" si="13"/>
         <v>267</v>
       </c>
-      <c r="M74" s="103" t="str">
+      <c r="M74" s="99" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N74" s="104">
+      <c r="N74" s="100">
         <f t="shared" si="15"/>
         <v>-2.5547445255474477E-2</v>
       </c>
-      <c r="P74" s="169"/>
+      <c r="P74" s="173"/>
     </row>
     <row r="75" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="J75" s="101">
+      <c r="J75" s="97">
         <v>52</v>
       </c>
-      <c r="K75" s="102">
+      <c r="K75" s="98">
         <f t="shared" si="16"/>
         <v>260.60000000000002</v>
       </c>
-      <c r="L75" s="102">
+      <c r="L75" s="98">
         <f t="shared" si="13"/>
         <v>261</v>
       </c>
-      <c r="M75" s="103" t="str">
+      <c r="M75" s="99" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N75" s="104">
+      <c r="N75" s="100">
         <f t="shared" si="15"/>
         <v>-2.2471910112359605E-2</v>
       </c>
-      <c r="P75" s="169"/>
+      <c r="P75" s="173"/>
       <c r="V75">
         <v>300</v>
       </c>
@@ -9183,164 +9215,165 @@
       </c>
     </row>
     <row r="76" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="J76" s="101">
+      <c r="J76" s="97">
         <v>53</v>
       </c>
-      <c r="K76" s="102">
+      <c r="K76" s="98">
         <f t="shared" si="16"/>
         <v>253.90000000000003</v>
       </c>
-      <c r="L76" s="102">
+      <c r="L76" s="98">
         <f t="shared" si="13"/>
         <v>254</v>
       </c>
-      <c r="M76" s="103" t="str">
+      <c r="M76" s="99" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N76" s="104">
+      <c r="N76" s="100">
         <f t="shared" si="15"/>
         <v>-2.6819923371647514E-2</v>
       </c>
-      <c r="P76" s="169"/>
+      <c r="P76" s="173"/>
     </row>
     <row r="77" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="J77" s="101">
+      <c r="J77" s="97">
         <v>54</v>
       </c>
-      <c r="K77" s="102">
+      <c r="K77" s="98">
         <f t="shared" si="16"/>
         <v>247.20000000000005</v>
       </c>
-      <c r="L77" s="102">
+      <c r="L77" s="98">
         <f t="shared" si="13"/>
         <v>247</v>
       </c>
-      <c r="M77" s="103" t="str">
+      <c r="M77" s="99" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N77" s="104">
+      <c r="N77" s="100">
         <f t="shared" si="15"/>
         <v>-2.7559055118110187E-2</v>
       </c>
-      <c r="P77" s="169"/>
+      <c r="P77" s="173"/>
     </row>
     <row r="78" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="G78" s="136" t="s">
+      <c r="G78" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="H78" s="136"/>
-      <c r="I78" s="136"/>
-      <c r="J78" s="137">
+      <c r="H78" s="128"/>
+      <c r="I78" s="128"/>
+      <c r="J78" s="129">
         <v>55</v>
       </c>
-      <c r="K78" s="138">
+      <c r="K78" s="130">
         <f t="shared" si="16"/>
         <v>240.50000000000006</v>
       </c>
-      <c r="L78" s="138">
+      <c r="L78" s="130">
         <f t="shared" si="13"/>
         <v>241</v>
       </c>
-      <c r="M78" s="139" t="str">
+      <c r="M78" s="131" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N78" s="140">
+      <c r="N78" s="132">
         <f t="shared" si="15"/>
         <v>-2.4291497975708509E-2</v>
       </c>
-      <c r="P78" s="169"/>
+      <c r="P78" s="173"/>
     </row>
     <row r="79" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="J79" s="101">
+      <c r="J79" s="85">
         <v>56</v>
       </c>
-      <c r="K79" s="102">
+      <c r="K79" s="86">
         <f t="shared" si="16"/>
         <v>233.80000000000007</v>
       </c>
-      <c r="L79" s="102">
+      <c r="L79" s="86">
         <f t="shared" si="13"/>
         <v>234</v>
       </c>
-      <c r="M79" s="103" t="str">
+      <c r="M79" s="174" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N79" s="104">
+      <c r="N79" s="175">
         <f t="shared" si="15"/>
         <v>-2.9045643153526979E-2</v>
       </c>
-      <c r="P79" s="169"/>
+      <c r="P79" s="137"/>
     </row>
     <row r="80" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="J80" s="101">
+      <c r="J80" s="85">
         <v>57</v>
       </c>
-      <c r="K80" s="102">
+      <c r="K80" s="86">
         <f t="shared" si="16"/>
         <v>227.10000000000008</v>
       </c>
-      <c r="L80" s="102">
+      <c r="L80" s="86">
         <f t="shared" si="13"/>
         <v>227</v>
       </c>
-      <c r="M80" s="103" t="str">
+      <c r="M80" s="174" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N80" s="104">
+      <c r="N80" s="175">
         <f t="shared" si="15"/>
         <v>-2.9914529914529919E-2</v>
       </c>
-      <c r="P80" s="169"/>
-    </row>
-    <row r="81" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J81" s="101">
+      <c r="P80" s="137"/>
+    </row>
+    <row r="81" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="J81" s="85">
         <v>58</v>
       </c>
-      <c r="K81" s="102">
+      <c r="K81" s="86">
         <f t="shared" si="16"/>
         <v>220.40000000000009</v>
       </c>
-      <c r="L81" s="102">
+      <c r="L81" s="86">
         <f t="shared" si="13"/>
         <v>220</v>
       </c>
-      <c r="M81" s="103" t="str">
+      <c r="M81" s="174" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N81" s="104">
+      <c r="N81" s="175">
         <f t="shared" si="15"/>
         <v>-3.0837004405286361E-2</v>
       </c>
-      <c r="P81" s="169"/>
-    </row>
-    <row r="82" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J82" s="92">
+      <c r="P81" s="137"/>
+    </row>
+    <row r="82" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="J82" s="85">
         <v>59</v>
       </c>
-      <c r="K82" s="93">
+      <c r="K82" s="86">
         <f t="shared" si="16"/>
         <v>213.7000000000001</v>
       </c>
-      <c r="L82" s="93">
+      <c r="L82" s="86">
         <f t="shared" si="13"/>
         <v>214</v>
       </c>
-      <c r="M82" s="94" t="str">
+      <c r="M82" s="174" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N82" s="95">
+      <c r="N82" s="175">
         <f t="shared" si="15"/>
         <v>-2.7272727272727226E-2</v>
       </c>
-    </row>
-    <row r="83" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="P82" s="137"/>
+    </row>
+    <row r="83" spans="6:16" x14ac:dyDescent="0.25">
       <c r="J83" s="84">
         <f>C12</f>
         <v>60</v>
@@ -9362,196 +9395,204 @@
         <v>-3.2710280373831724E-2</v>
       </c>
     </row>
-    <row r="84" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J84" s="92">
+    <row r="84" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="J84" s="85">
         <v>61</v>
       </c>
-      <c r="K84" s="93">
+      <c r="K84" s="86">
         <f>K83-($H$13/$B$13)</f>
         <v>201.8</v>
       </c>
-      <c r="L84" s="93">
+      <c r="L84" s="86">
         <f t="shared" si="13"/>
         <v>202</v>
       </c>
-      <c r="M84" s="94" t="str">
+      <c r="M84" s="174" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N84" s="95">
+      <c r="N84" s="175">
         <f t="shared" si="15"/>
         <v>-2.4154589371980673E-2</v>
       </c>
     </row>
-    <row r="85" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J85" s="92">
+    <row r="85" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="J85" s="85">
         <v>62</v>
       </c>
-      <c r="K85" s="93">
+      <c r="K85" s="86">
         <f t="shared" ref="K85:K92" si="17">K84-($H$13/$B$13)</f>
         <v>196.60000000000002</v>
       </c>
-      <c r="L85" s="93">
+      <c r="L85" s="86">
         <f t="shared" si="13"/>
         <v>197</v>
       </c>
-      <c r="M85" s="94" t="str">
+      <c r="M85" s="174" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N85" s="95">
+      <c r="N85" s="175">
         <f t="shared" si="15"/>
         <v>-2.4752475247524774E-2</v>
       </c>
     </row>
-    <row r="86" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J86" s="92">
+    <row r="86" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="J86" s="85">
         <v>63</v>
       </c>
-      <c r="K86" s="93">
+      <c r="K86" s="86">
         <f t="shared" si="17"/>
         <v>191.40000000000003</v>
       </c>
-      <c r="L86" s="93">
+      <c r="L86" s="86">
         <f t="shared" si="13"/>
         <v>191</v>
       </c>
-      <c r="M86" s="94" t="str">
+      <c r="M86" s="174" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N86" s="95">
+      <c r="N86" s="175">
         <f t="shared" si="15"/>
         <v>-3.0456852791878153E-2</v>
       </c>
     </row>
-    <row r="87" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J87" s="92">
+    <row r="87" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="J87" s="85">
         <v>64</v>
       </c>
-      <c r="K87" s="93">
+      <c r="K87" s="86">
         <f t="shared" si="17"/>
         <v>186.20000000000005</v>
       </c>
-      <c r="L87" s="93">
+      <c r="L87" s="86">
         <f t="shared" si="13"/>
         <v>186</v>
       </c>
-      <c r="M87" s="94" t="str">
+      <c r="M87" s="174" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N87" s="95">
+      <c r="N87" s="175">
         <f t="shared" si="15"/>
         <v>-2.6178010471204161E-2</v>
       </c>
     </row>
-    <row r="88" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J88" s="92">
+    <row r="88" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="J88" s="85">
         <v>65</v>
       </c>
-      <c r="K88" s="93">
+      <c r="K88" s="86">
         <f t="shared" si="17"/>
         <v>181.00000000000006</v>
       </c>
-      <c r="L88" s="93">
+      <c r="L88" s="86">
         <f t="shared" si="13"/>
         <v>181</v>
       </c>
-      <c r="M88" s="94" t="str">
+      <c r="M88" s="174" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N88" s="95">
+      <c r="N88" s="175">
         <f t="shared" si="15"/>
         <v>-2.6881720430107503E-2</v>
       </c>
     </row>
-    <row r="89" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J89" s="92">
+    <row r="89" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F89" s="180"/>
+      <c r="G89" s="181" t="s">
+        <v>100</v>
+      </c>
+      <c r="H89" s="182" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="137"/>
+      <c r="J89" s="176">
         <v>66</v>
       </c>
-      <c r="K89" s="93">
+      <c r="K89" s="177">
         <f t="shared" si="17"/>
         <v>175.80000000000007</v>
       </c>
-      <c r="L89" s="93">
+      <c r="L89" s="177">
         <f t="shared" si="13"/>
         <v>176</v>
       </c>
-      <c r="M89" s="94" t="str">
+      <c r="M89" s="178" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N89" s="95">
+      <c r="N89" s="179">
         <f t="shared" si="15"/>
         <v>-2.7624309392265234E-2</v>
       </c>
     </row>
-    <row r="90" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J90" s="92">
+    <row r="90" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="J90" s="85">
         <v>67</v>
       </c>
-      <c r="K90" s="93">
+      <c r="K90" s="86">
         <f t="shared" si="17"/>
         <v>170.60000000000008</v>
       </c>
-      <c r="L90" s="93">
+      <c r="L90" s="86">
         <f t="shared" si="13"/>
         <v>171</v>
       </c>
-      <c r="M90" s="94" t="str">
+      <c r="M90" s="174" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N90" s="95">
+      <c r="N90" s="175">
         <f t="shared" si="15"/>
         <v>-2.8409090909090939E-2</v>
       </c>
     </row>
-    <row r="91" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J91" s="92">
+    <row r="91" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="J91" s="85">
         <v>68</v>
       </c>
-      <c r="K91" s="93">
+      <c r="K91" s="86">
         <f t="shared" si="17"/>
         <v>165.40000000000009</v>
       </c>
-      <c r="L91" s="93">
+      <c r="L91" s="86">
         <f t="shared" si="13"/>
         <v>165</v>
       </c>
-      <c r="M91" s="94" t="str">
+      <c r="M91" s="174" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N91" s="95">
+      <c r="N91" s="175">
         <f t="shared" si="15"/>
         <v>-3.5087719298245612E-2</v>
       </c>
     </row>
-    <row r="92" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J92" s="92">
+    <row r="92" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="J92" s="85">
         <v>69</v>
       </c>
-      <c r="K92" s="93">
+      <c r="K92" s="86">
         <f t="shared" si="17"/>
         <v>160.2000000000001</v>
       </c>
-      <c r="L92" s="93">
+      <c r="L92" s="86">
         <f t="shared" si="13"/>
         <v>160</v>
       </c>
-      <c r="M92" s="94" t="str">
+      <c r="M92" s="174" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N92" s="95">
+      <c r="N92" s="175">
         <f t="shared" si="15"/>
         <v>-3.0303030303030276E-2</v>
       </c>
     </row>
-    <row r="93" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:16" x14ac:dyDescent="0.25">
       <c r="J93" s="84">
         <f>C13</f>
         <v>70</v>
@@ -9573,7 +9614,7 @@
         <v>-3.125E-2</v>
       </c>
     </row>
-    <row r="94" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:16" x14ac:dyDescent="0.25">
       <c r="J94">
         <v>71</v>
       </c>
@@ -9594,7 +9635,7 @@
         <v>-2.5806451612903181E-2</v>
       </c>
     </row>
-    <row r="95" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:16" x14ac:dyDescent="0.25">
       <c r="J95">
         <v>72</v>
       </c>
@@ -9615,7 +9656,7 @@
         <v>-2.6490066225165587E-2</v>
       </c>
     </row>
-    <row r="96" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:16" x14ac:dyDescent="0.25">
       <c r="J96">
         <v>73</v>
       </c>
@@ -9763,23 +9804,23 @@
       </c>
     </row>
     <row r="103" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="J103" s="112">
+      <c r="J103" s="108">
         <f>C14</f>
         <v>80</v>
       </c>
-      <c r="K103" s="112">
+      <c r="K103" s="108">
         <f>G14</f>
         <v>116</v>
       </c>
-      <c r="L103" s="112">
+      <c r="L103" s="108">
         <f t="shared" si="13"/>
         <v>116</v>
       </c>
-      <c r="M103" s="114" t="str">
+      <c r="M103" s="110" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N103" s="115">
+      <c r="N103" s="111">
         <f t="shared" si="15"/>
         <v>-3.3333333333333326E-2</v>
       </c>
@@ -9871,23 +9912,23 @@
     <row r="108" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G108" s="82"/>
       <c r="H108" s="82"/>
-      <c r="J108" s="112">
+      <c r="J108" s="108">
         <f>C15</f>
         <v>85</v>
       </c>
-      <c r="K108" s="112">
+      <c r="K108" s="108">
         <f>G15</f>
         <v>100</v>
       </c>
-      <c r="L108" s="112">
+      <c r="L108" s="108">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="M108" s="114" t="str">
+      <c r="M108" s="110" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N108" s="115">
+      <c r="N108" s="111">
         <f t="shared" si="15"/>
         <v>-2.9126213592232997E-2</v>
       </c>
@@ -9987,23 +10028,23 @@
     <row r="113" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G113" s="82"/>
       <c r="H113" s="82"/>
-      <c r="J113" s="112">
+      <c r="J113" s="108">
         <f>C16</f>
         <v>90</v>
       </c>
-      <c r="K113" s="112">
+      <c r="K113" s="108">
         <f>G16</f>
         <v>87</v>
       </c>
-      <c r="L113" s="112">
+      <c r="L113" s="108">
         <f t="shared" si="13"/>
         <v>87</v>
       </c>
-      <c r="M113" s="114" t="str">
+      <c r="M113" s="110" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N113" s="115">
+      <c r="N113" s="111">
         <f t="shared" si="15"/>
         <v>-3.3333333333333326E-2</v>
       </c>
@@ -10218,23 +10259,23 @@
     <row r="123" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G123" s="82"/>
       <c r="H123" s="82"/>
-      <c r="J123" s="112">
+      <c r="J123" s="108">
         <f>C17</f>
         <v>100</v>
       </c>
-      <c r="K123" s="112">
+      <c r="K123" s="108">
         <f>G17</f>
         <v>66</v>
       </c>
-      <c r="L123" s="112">
+      <c r="L123" s="108">
         <f t="shared" si="13"/>
         <v>66</v>
       </c>
-      <c r="M123" s="114" t="str">
+      <c r="M123" s="110" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N123" s="115">
+      <c r="N123" s="111">
         <f t="shared" si="15"/>
         <v>-2.9411764705882359E-2</v>
       </c>
@@ -10449,23 +10490,23 @@
     <row r="133" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G133" s="82"/>
       <c r="H133" s="82"/>
-      <c r="J133" s="112">
+      <c r="J133" s="108">
         <f>C18</f>
         <v>110</v>
       </c>
-      <c r="K133" s="112">
+      <c r="K133" s="108">
         <f>G18</f>
         <v>50</v>
       </c>
-      <c r="L133" s="112">
+      <c r="L133" s="108">
         <f t="shared" ref="L133:L148" si="21">ROUND(K133,0)</f>
         <v>50</v>
       </c>
-      <c r="M133" s="114" t="str">
+      <c r="M133" s="110" t="str">
         <f t="shared" ref="M133:M148" si="22">IF(L133&lt;L132,"OK","Too small")</f>
         <v>OK</v>
       </c>
-      <c r="N133" s="115">
+      <c r="N133" s="111">
         <f t="shared" ref="N133:N148" si="23">(L133/L132)-1</f>
         <v>-3.8461538461538436E-2</v>
       </c>
@@ -10680,23 +10721,23 @@
     <row r="143" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G143" s="82"/>
       <c r="H143" s="82"/>
-      <c r="J143" s="112">
+      <c r="J143" s="108">
         <f>C19</f>
         <v>120</v>
       </c>
-      <c r="K143" s="112">
+      <c r="K143" s="108">
         <f>G19</f>
         <v>39</v>
       </c>
-      <c r="L143" s="112">
+      <c r="L143" s="108">
         <f t="shared" si="21"/>
         <v>39</v>
       </c>
-      <c r="M143" s="114" t="str">
+      <c r="M143" s="110" t="str">
         <f t="shared" si="22"/>
         <v>OK</v>
       </c>
-      <c r="N143" s="115">
+      <c r="N143" s="111">
         <f t="shared" si="23"/>
         <v>-2.5000000000000022E-2</v>
       </c>
@@ -10792,30 +10833,30 @@
       </c>
     </row>
     <row r="148" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="J148" s="112">
+      <c r="J148" s="108">
         <f>C20</f>
         <v>125</v>
       </c>
-      <c r="K148" s="112">
+      <c r="K148" s="108">
         <f>G20</f>
         <v>34</v>
       </c>
-      <c r="L148" s="112">
+      <c r="L148" s="108">
         <f t="shared" si="21"/>
         <v>34</v>
       </c>
-      <c r="M148" s="114" t="str">
+      <c r="M148" s="110" t="str">
         <f t="shared" si="22"/>
         <v>OK</v>
       </c>
-      <c r="N148" s="115">
+      <c r="N148" s="111">
         <f t="shared" si="23"/>
         <v>-2.8571428571428581E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="P66:P81"/>
+    <mergeCell ref="P61:P78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10890,622 +10931,622 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="110">
+      <c r="B4" s="106">
         <v>7000</v>
       </c>
-      <c r="C4" s="111">
+      <c r="C4" s="107">
         <v>1</v>
       </c>
-      <c r="D4" s="111">
-        <v>0</v>
-      </c>
-      <c r="E4" s="111">
-        <v>0</v>
-      </c>
-      <c r="F4" s="110">
+      <c r="D4" s="107">
+        <v>0</v>
+      </c>
+      <c r="E4" s="107">
+        <v>0</v>
+      </c>
+      <c r="F4" s="106">
         <f>(C4*$K$4)+(D4*$K$5)+(E4*$K$6)</f>
         <v>7000</v>
       </c>
-      <c r="G4" s="111">
+      <c r="G4" s="107">
         <f>SUM(C4:E4)</f>
         <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="109">
+      <c r="K4" s="105">
         <v>7000</v>
       </c>
-      <c r="L4" s="108">
+      <c r="L4" s="104">
         <v>0.87</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="110">
+      <c r="B5" s="106">
         <v>7500</v>
       </c>
-      <c r="C5" s="111">
+      <c r="C5" s="107">
         <v>0.9</v>
       </c>
-      <c r="D5" s="111">
+      <c r="D5" s="107">
         <v>0.1</v>
       </c>
-      <c r="E5" s="111">
-        <v>0</v>
-      </c>
-      <c r="F5" s="110">
+      <c r="E5" s="107">
+        <v>0</v>
+      </c>
+      <c r="F5" s="106">
         <f t="shared" ref="F5:F10" si="0">(C5*$K$4)+(D5*$K$5)+(E5*$K$6)</f>
         <v>7500</v>
       </c>
-      <c r="G5" s="111">
+      <c r="G5" s="107">
         <f t="shared" ref="G5:G10" si="1">SUM(C5:E5)</f>
         <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="109">
+      <c r="K5" s="105">
         <v>12000</v>
       </c>
-      <c r="L5" s="108">
+      <c r="L5" s="104">
         <v>1.46</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="110">
+      <c r="B6" s="106">
         <v>8000</v>
       </c>
-      <c r="C6" s="111">
+      <c r="C6" s="107">
         <v>0.8</v>
       </c>
-      <c r="D6" s="111">
+      <c r="D6" s="107">
         <v>0.2</v>
       </c>
-      <c r="E6" s="111">
-        <v>0</v>
-      </c>
-      <c r="F6" s="110">
+      <c r="E6" s="107">
+        <v>0</v>
+      </c>
+      <c r="F6" s="106">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="G6" s="111">
+      <c r="G6" s="107">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="109">
+      <c r="K6" s="105">
         <v>20000</v>
       </c>
-      <c r="L6" s="108">
+      <c r="L6" s="104">
         <v>2.39</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="110">
+      <c r="B7" s="106">
         <v>8500</v>
       </c>
-      <c r="C7" s="111">
+      <c r="C7" s="107">
         <v>0.7</v>
       </c>
-      <c r="D7" s="111">
+      <c r="D7" s="107">
         <v>0.3</v>
       </c>
-      <c r="E7" s="111">
-        <v>0</v>
-      </c>
-      <c r="F7" s="110">
+      <c r="E7" s="107">
+        <v>0</v>
+      </c>
+      <c r="F7" s="106">
         <f t="shared" si="0"/>
         <v>8500</v>
       </c>
-      <c r="G7" s="111">
+      <c r="G7" s="107">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="110">
+      <c r="B8" s="106">
         <v>9000</v>
       </c>
-      <c r="C8" s="111">
+      <c r="C8" s="107">
         <v>0.6</v>
       </c>
-      <c r="D8" s="111">
+      <c r="D8" s="107">
         <v>0.4</v>
       </c>
-      <c r="E8" s="111">
-        <v>0</v>
-      </c>
-      <c r="F8" s="110">
+      <c r="E8" s="107">
+        <v>0</v>
+      </c>
+      <c r="F8" s="106">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="G8" s="111">
+      <c r="G8" s="107">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="110">
+      <c r="B9" s="106">
         <v>9500</v>
       </c>
-      <c r="C9" s="111">
+      <c r="C9" s="107">
         <v>0.5</v>
       </c>
-      <c r="D9" s="111">
+      <c r="D9" s="107">
         <v>0.5</v>
       </c>
-      <c r="E9" s="111">
-        <v>0</v>
-      </c>
-      <c r="F9" s="110">
+      <c r="E9" s="107">
+        <v>0</v>
+      </c>
+      <c r="F9" s="106">
         <f t="shared" si="0"/>
         <v>9500</v>
       </c>
-      <c r="G9" s="111">
+      <c r="G9" s="107">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="110">
+      <c r="B10" s="106">
         <v>10000</v>
       </c>
-      <c r="C10" s="111">
+      <c r="C10" s="107">
         <v>0.4</v>
       </c>
-      <c r="D10" s="111">
+      <c r="D10" s="107">
         <v>0.6</v>
       </c>
-      <c r="E10" s="111">
-        <v>0</v>
-      </c>
-      <c r="F10" s="110">
+      <c r="E10" s="107">
+        <v>0</v>
+      </c>
+      <c r="F10" s="106">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G10" s="111">
+      <c r="G10" s="107">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="110">
+      <c r="B11" s="106">
         <v>10500</v>
       </c>
-      <c r="C11" s="111">
+      <c r="C11" s="107">
         <v>0.3</v>
       </c>
-      <c r="D11" s="111">
+      <c r="D11" s="107">
         <v>0.7</v>
       </c>
-      <c r="E11" s="111">
-        <v>0</v>
-      </c>
-      <c r="F11" s="110">
+      <c r="E11" s="107">
+        <v>0</v>
+      </c>
+      <c r="F11" s="106">
         <f t="shared" ref="F11" si="2">(C11*$K$4)+(D11*$K$5)+(E11*$K$6)</f>
         <v>10500</v>
       </c>
-      <c r="G11" s="111">
+      <c r="G11" s="107">
         <f t="shared" ref="G11" si="3">SUM(C11:E11)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="110">
+      <c r="B12" s="106">
         <v>11000</v>
       </c>
-      <c r="C12" s="111">
+      <c r="C12" s="107">
         <v>0.2</v>
       </c>
-      <c r="D12" s="111">
+      <c r="D12" s="107">
         <v>0.8</v>
       </c>
-      <c r="E12" s="111">
-        <v>0</v>
-      </c>
-      <c r="F12" s="110">
+      <c r="E12" s="107">
+        <v>0</v>
+      </c>
+      <c r="F12" s="106">
         <f t="shared" ref="F12:F30" si="4">(C12*$K$4)+(D12*$K$5)+(E12*$K$6)</f>
         <v>11000</v>
       </c>
-      <c r="G12" s="111">
+      <c r="G12" s="107">
         <f t="shared" ref="G12:G30" si="5">SUM(C12:E12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="110">
+      <c r="B13" s="106">
         <v>11500</v>
       </c>
-      <c r="C13" s="111">
+      <c r="C13" s="107">
         <v>0.1</v>
       </c>
-      <c r="D13" s="111">
+      <c r="D13" s="107">
         <v>0.9</v>
       </c>
-      <c r="E13" s="111">
-        <v>0</v>
-      </c>
-      <c r="F13" s="110">
+      <c r="E13" s="107">
+        <v>0</v>
+      </c>
+      <c r="F13" s="106">
         <f t="shared" si="4"/>
         <v>11500</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="107">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="110">
+      <c r="B14" s="106">
         <v>12000</v>
       </c>
-      <c r="C14" s="111">
-        <v>0</v>
-      </c>
-      <c r="D14" s="111">
+      <c r="C14" s="107">
+        <v>0</v>
+      </c>
+      <c r="D14" s="107">
         <v>1</v>
       </c>
-      <c r="E14" s="111">
-        <v>0</v>
-      </c>
-      <c r="F14" s="110">
+      <c r="E14" s="107">
+        <v>0</v>
+      </c>
+      <c r="F14" s="106">
         <f t="shared" si="4"/>
         <v>12000</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="107">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="110">
+      <c r="B15" s="106">
         <v>12500</v>
       </c>
-      <c r="C15" s="111">
+      <c r="C15" s="107">
         <v>0.4</v>
       </c>
-      <c r="D15" s="111">
+      <c r="D15" s="107">
         <v>0.3</v>
       </c>
-      <c r="E15" s="111">
+      <c r="E15" s="107">
         <v>0.3</v>
       </c>
-      <c r="F15" s="110">
+      <c r="F15" s="106">
         <f t="shared" si="4"/>
         <v>12400</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="107">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="110">
+      <c r="B16" s="106">
         <v>13000</v>
       </c>
-      <c r="C16" s="111">
-        <v>0</v>
-      </c>
-      <c r="D16" s="111">
+      <c r="C16" s="107">
+        <v>0</v>
+      </c>
+      <c r="D16" s="107">
         <v>0.2</v>
       </c>
-      <c r="E16" s="111">
+      <c r="E16" s="107">
         <v>0.5</v>
       </c>
-      <c r="F16" s="110">
+      <c r="F16" s="106">
         <f t="shared" si="4"/>
         <v>12400</v>
       </c>
-      <c r="G16" s="111">
+      <c r="G16" s="107">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="110">
+      <c r="B17" s="106">
         <v>13500</v>
       </c>
-      <c r="C17" s="111">
-        <v>0</v>
-      </c>
-      <c r="D17" s="111">
-        <v>0</v>
-      </c>
-      <c r="E17" s="111">
-        <v>0</v>
-      </c>
-      <c r="F17" s="110">
+      <c r="C17" s="107">
+        <v>0</v>
+      </c>
+      <c r="D17" s="107">
+        <v>0</v>
+      </c>
+      <c r="E17" s="107">
+        <v>0</v>
+      </c>
+      <c r="F17" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G17" s="111">
+      <c r="G17" s="107">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="110">
+      <c r="B18" s="106">
         <v>14000</v>
       </c>
-      <c r="C18" s="111">
-        <v>0</v>
-      </c>
-      <c r="D18" s="111">
-        <v>0</v>
-      </c>
-      <c r="E18" s="111">
-        <v>0</v>
-      </c>
-      <c r="F18" s="110">
+      <c r="C18" s="107">
+        <v>0</v>
+      </c>
+      <c r="D18" s="107">
+        <v>0</v>
+      </c>
+      <c r="E18" s="107">
+        <v>0</v>
+      </c>
+      <c r="F18" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G18" s="111">
+      <c r="G18" s="107">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="110">
+      <c r="B19" s="106">
         <v>14500</v>
       </c>
-      <c r="C19" s="111">
-        <v>0</v>
-      </c>
-      <c r="D19" s="111">
-        <v>0</v>
-      </c>
-      <c r="E19" s="111">
-        <v>0</v>
-      </c>
-      <c r="F19" s="110">
+      <c r="C19" s="107">
+        <v>0</v>
+      </c>
+      <c r="D19" s="107">
+        <v>0</v>
+      </c>
+      <c r="E19" s="107">
+        <v>0</v>
+      </c>
+      <c r="F19" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G19" s="111">
+      <c r="G19" s="107">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="110">
+      <c r="B20" s="106">
         <v>15000</v>
       </c>
-      <c r="C20" s="111">
-        <v>0</v>
-      </c>
-      <c r="D20" s="111">
-        <v>0</v>
-      </c>
-      <c r="E20" s="111">
-        <v>0</v>
-      </c>
-      <c r="F20" s="110">
+      <c r="C20" s="107">
+        <v>0</v>
+      </c>
+      <c r="D20" s="107">
+        <v>0</v>
+      </c>
+      <c r="E20" s="107">
+        <v>0</v>
+      </c>
+      <c r="F20" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G20" s="111">
+      <c r="G20" s="107">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="110">
+      <c r="B21" s="106">
         <v>15500</v>
       </c>
-      <c r="C21" s="111">
-        <v>0</v>
-      </c>
-      <c r="D21" s="111">
-        <v>0</v>
-      </c>
-      <c r="E21" s="111">
-        <v>0</v>
-      </c>
-      <c r="F21" s="110">
+      <c r="C21" s="107">
+        <v>0</v>
+      </c>
+      <c r="D21" s="107">
+        <v>0</v>
+      </c>
+      <c r="E21" s="107">
+        <v>0</v>
+      </c>
+      <c r="F21" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G21" s="111">
+      <c r="G21" s="107">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="110">
+      <c r="B22" s="106">
         <v>16000</v>
       </c>
-      <c r="C22" s="111">
-        <v>0</v>
-      </c>
-      <c r="D22" s="111">
-        <v>0</v>
-      </c>
-      <c r="E22" s="111">
-        <v>0</v>
-      </c>
-      <c r="F22" s="110">
+      <c r="C22" s="107">
+        <v>0</v>
+      </c>
+      <c r="D22" s="107">
+        <v>0</v>
+      </c>
+      <c r="E22" s="107">
+        <v>0</v>
+      </c>
+      <c r="F22" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G22" s="111">
+      <c r="G22" s="107">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="110">
+      <c r="B23" s="106">
         <v>16500</v>
       </c>
-      <c r="C23" s="111">
-        <v>0</v>
-      </c>
-      <c r="D23" s="111">
-        <v>0</v>
-      </c>
-      <c r="E23" s="111">
-        <v>0</v>
-      </c>
-      <c r="F23" s="110">
+      <c r="C23" s="107">
+        <v>0</v>
+      </c>
+      <c r="D23" s="107">
+        <v>0</v>
+      </c>
+      <c r="E23" s="107">
+        <v>0</v>
+      </c>
+      <c r="F23" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G23" s="111">
+      <c r="G23" s="107">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="110">
+      <c r="B24" s="106">
         <v>17000</v>
       </c>
-      <c r="C24" s="111">
-        <v>0</v>
-      </c>
-      <c r="D24" s="111">
-        <v>0</v>
-      </c>
-      <c r="E24" s="111">
-        <v>0</v>
-      </c>
-      <c r="F24" s="110">
+      <c r="C24" s="107">
+        <v>0</v>
+      </c>
+      <c r="D24" s="107">
+        <v>0</v>
+      </c>
+      <c r="E24" s="107">
+        <v>0</v>
+      </c>
+      <c r="F24" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G24" s="111">
+      <c r="G24" s="107">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="110">
+      <c r="B25" s="106">
         <v>17500</v>
       </c>
-      <c r="C25" s="111">
-        <v>0</v>
-      </c>
-      <c r="D25" s="111">
-        <v>0</v>
-      </c>
-      <c r="E25" s="111">
-        <v>0</v>
-      </c>
-      <c r="F25" s="110">
+      <c r="C25" s="107">
+        <v>0</v>
+      </c>
+      <c r="D25" s="107">
+        <v>0</v>
+      </c>
+      <c r="E25" s="107">
+        <v>0</v>
+      </c>
+      <c r="F25" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G25" s="111">
+      <c r="G25" s="107">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="110">
+      <c r="B26" s="106">
         <v>18000</v>
       </c>
-      <c r="C26" s="111">
-        <v>0</v>
-      </c>
-      <c r="D26" s="111">
-        <v>0</v>
-      </c>
-      <c r="E26" s="111">
-        <v>0</v>
-      </c>
-      <c r="F26" s="110">
+      <c r="C26" s="107">
+        <v>0</v>
+      </c>
+      <c r="D26" s="107">
+        <v>0</v>
+      </c>
+      <c r="E26" s="107">
+        <v>0</v>
+      </c>
+      <c r="F26" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G26" s="111">
+      <c r="G26" s="107">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="110">
+      <c r="B27" s="106">
         <v>18500</v>
       </c>
-      <c r="C27" s="111">
-        <v>0</v>
-      </c>
-      <c r="D27" s="111">
-        <v>0</v>
-      </c>
-      <c r="E27" s="111">
-        <v>0</v>
-      </c>
-      <c r="F27" s="110">
+      <c r="C27" s="107">
+        <v>0</v>
+      </c>
+      <c r="D27" s="107">
+        <v>0</v>
+      </c>
+      <c r="E27" s="107">
+        <v>0</v>
+      </c>
+      <c r="F27" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G27" s="111">
+      <c r="G27" s="107">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="110">
+      <c r="B28" s="106">
         <v>19000</v>
       </c>
-      <c r="C28" s="111">
-        <v>0</v>
-      </c>
-      <c r="D28" s="111">
-        <v>0</v>
-      </c>
-      <c r="E28" s="111">
-        <v>0</v>
-      </c>
-      <c r="F28" s="110">
+      <c r="C28" s="107">
+        <v>0</v>
+      </c>
+      <c r="D28" s="107">
+        <v>0</v>
+      </c>
+      <c r="E28" s="107">
+        <v>0</v>
+      </c>
+      <c r="F28" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G28" s="111">
+      <c r="G28" s="107">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="110">
+      <c r="B29" s="106">
         <v>19500</v>
       </c>
-      <c r="C29" s="111">
-        <v>0</v>
-      </c>
-      <c r="D29" s="111">
+      <c r="C29" s="107">
+        <v>0</v>
+      </c>
+      <c r="D29" s="107">
         <v>0.05</v>
       </c>
-      <c r="E29" s="111">
+      <c r="E29" s="107">
         <v>0.95</v>
       </c>
-      <c r="F29" s="110">
+      <c r="F29" s="106">
         <f t="shared" si="4"/>
         <v>19600</v>
       </c>
-      <c r="G29" s="111">
+      <c r="G29" s="107">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="110">
+      <c r="B30" s="106">
         <v>20000</v>
       </c>
-      <c r="C30" s="111">
-        <v>0</v>
-      </c>
-      <c r="D30" s="111">
-        <v>0</v>
-      </c>
-      <c r="E30" s="111">
+      <c r="C30" s="107">
+        <v>0</v>
+      </c>
+      <c r="D30" s="107">
+        <v>0</v>
+      </c>
+      <c r="E30" s="107">
         <v>1</v>
       </c>
-      <c r="F30" s="110">
+      <c r="F30" s="106">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-      <c r="G30" s="111">
+      <c r="G30" s="107">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -11541,23 +11582,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F797FCAE-A1DA-4AA7-AEDC-2E0DED9663A9}">
   <dimension ref="B2:AO36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="145" customWidth="1"/>
-    <col min="2" max="7" width="9.140625" style="145"/>
-    <col min="8" max="8" width="11" style="145" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="145" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="145" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="145" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="145" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="145" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="145"/>
-    <col min="15" max="41" width="13.140625" style="145" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="145"/>
+    <col min="1" max="1" width="2.7109375" style="137" customWidth="1"/>
+    <col min="2" max="7" width="9.140625" style="137"/>
+    <col min="8" max="8" width="11" style="137" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="137" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="137" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="137" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="137" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="137" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="137"/>
+    <col min="15" max="41" width="13.140625" style="137" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="137"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:41" x14ac:dyDescent="0.25">
@@ -11652,10 +11693,10 @@
       <c r="B3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="113" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="38" t="s">
@@ -11682,51 +11723,51 @@
       <c r="M3" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="181" t="str">
+      <c r="O3" s="166" t="str">
         <f>CONCATENATE("Knob step ", $K$4 - O2)</f>
         <v>Knob step 11</v>
       </c>
-      <c r="P3" s="181" t="str">
+      <c r="P3" s="166" t="str">
         <f t="shared" ref="P3:T3" si="0">CONCATENATE("Knob step ", $K$4 - P2)</f>
         <v>Knob step 10</v>
       </c>
-      <c r="Q3" s="181" t="str">
+      <c r="Q3" s="166" t="str">
         <f t="shared" si="0"/>
         <v>Knob step 9</v>
       </c>
-      <c r="R3" s="181" t="str">
+      <c r="R3" s="166" t="str">
         <f t="shared" si="0"/>
         <v>Knob step 8</v>
       </c>
-      <c r="S3" s="181" t="str">
+      <c r="S3" s="166" t="str">
         <f t="shared" si="0"/>
         <v>Knob step 7</v>
       </c>
-      <c r="T3" s="181" t="str">
+      <c r="T3" s="166" t="str">
         <f t="shared" si="0"/>
         <v>Knob step 6</v>
       </c>
-      <c r="U3" s="181" t="str">
+      <c r="U3" s="166" t="str">
         <f t="shared" ref="U3" si="1">CONCATENATE("Knob step ", $K$4 - U2)</f>
         <v>Knob step 5</v>
       </c>
-      <c r="V3" s="181" t="str">
+      <c r="V3" s="166" t="str">
         <f t="shared" ref="V3" si="2">CONCATENATE("Knob step ", $K$4 - V2)</f>
         <v>Knob step 4</v>
       </c>
-      <c r="W3" s="181" t="str">
+      <c r="W3" s="166" t="str">
         <f t="shared" ref="W3" si="3">CONCATENATE("Knob step ", $K$4 - W2)</f>
         <v>Knob step 3</v>
       </c>
-      <c r="X3" s="181" t="str">
+      <c r="X3" s="166" t="str">
         <f t="shared" ref="X3:Y3" si="4">CONCATENATE("Knob step ", $K$4 - X2)</f>
         <v>Knob step 2</v>
       </c>
-      <c r="Y3" s="181" t="str">
+      <c r="Y3" s="166" t="str">
         <f t="shared" si="4"/>
         <v>Knob step 1</v>
       </c>
-      <c r="Z3" s="181" t="str">
+      <c r="Z3" s="166" t="str">
         <f t="shared" ref="Z3" si="5">CONCATENATE("Knob step ", $K$4 - Z2)</f>
         <v>Knob step 0</v>
       </c>
@@ -11792,22 +11833,22 @@
       </c>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="122">
+      <c r="C4" s="114">
         <v>7000</v>
       </c>
-      <c r="D4" s="123">
+      <c r="D4" s="115">
         <v>0.87</v>
       </c>
-      <c r="F4" s="170">
+      <c r="F4" s="155">
         <v>6</v>
       </c>
-      <c r="G4" s="171">
+      <c r="G4" s="156">
         <v>1</v>
       </c>
-      <c r="H4" s="172">
+      <c r="H4" s="157">
         <f>$G$4/$F$4</f>
         <v>0.16666666666666666</v>
       </c>
@@ -11819,7 +11860,7 @@
         <f>(F4+1)^I4</f>
         <v>343</v>
       </c>
-      <c r="K4" s="173">
+      <c r="K4" s="158">
         <f>COUNTIFS(F:F,"&gt;=" &amp; J6, F:F,"&lt;=" &amp; K6, E:E,"&gt;99,8%", E:E, "&lt;100,02%")</f>
         <v>12</v>
       </c>
@@ -11944,13 +11985,13 @@
       </c>
     </row>
     <row r="5" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="122">
+      <c r="C5" s="114">
         <v>12000</v>
       </c>
-      <c r="D5" s="123">
+      <c r="D5" s="115">
         <v>1.46</v>
       </c>
       <c r="F5" s="29"/>
@@ -12075,24 +12116,24 @@
       </c>
     </row>
     <row r="6" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="122">
+      <c r="C6" s="114">
         <v>20000</v>
       </c>
-      <c r="D6" s="123">
+      <c r="D6" s="115">
         <v>2.39</v>
       </c>
-      <c r="F6" s="174"/>
+      <c r="F6" s="159"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="110">
+      <c r="J6" s="106">
         <f>C4</f>
         <v>7000</v>
       </c>
-      <c r="K6" s="175">
+      <c r="K6" s="160">
         <v>12000</v>
       </c>
       <c r="L6" s="29"/>
@@ -12144,59 +12185,59 @@
       <c r="G8" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="176" t="s">
+      <c r="I8" s="161" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="176" t="s">
+      <c r="J8" s="161" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="176" t="s">
+      <c r="K8" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="L8" s="176" t="s">
+      <c r="L8" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="176" t="s">
+      <c r="M8" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="N8" s="176" t="s">
+      <c r="N8" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="176" t="s">
+      <c r="O8" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="Q8" s="177" t="s">
+      <c r="Q8" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="R8" s="177"/>
-      <c r="S8" s="177"/>
-      <c r="T8" s="177"/>
-      <c r="U8" s="177"/>
+      <c r="R8" s="162"/>
+      <c r="S8" s="162"/>
+      <c r="T8" s="162"/>
+      <c r="U8" s="162"/>
     </row>
     <row r="9" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B9" s="178">
-        <v>0</v>
-      </c>
-      <c r="C9" s="125">
-        <v>0</v>
-      </c>
-      <c r="D9" s="125">
+      <c r="B9" s="163">
+        <v>0</v>
+      </c>
+      <c r="C9" s="117">
+        <v>0</v>
+      </c>
+      <c r="D9" s="117">
         <v>0.99999999999999989</v>
       </c>
-      <c r="E9" s="125">
+      <c r="E9" s="117">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F9" s="126">
+      <c r="F9" s="118">
         <v>6999.9999999999991</v>
       </c>
-      <c r="G9" s="179">
+      <c r="G9" s="164">
         <v>0.86999999999999988</v>
       </c>
-      <c r="I9" s="180">
+      <c r="I9" s="165">
         <f t="shared" ref="I9:I36" si="21">SUM(K9:M9)</f>
         <v>100</v>
       </c>
-      <c r="J9" s="180">
+      <c r="J9" s="165">
         <v>0</v>
       </c>
       <c r="K9" s="29">
@@ -12208,7 +12249,7 @@
       <c r="M9" s="29">
         <v>0</v>
       </c>
-      <c r="N9" s="109">
+      <c r="N9" s="105">
         <f>F9</f>
         <v>6999.9999999999991</v>
       </c>
@@ -12216,35 +12257,35 @@
         <f>G9</f>
         <v>0.86999999999999988</v>
       </c>
-      <c r="Q9" s="145" t="str">
+      <c r="Q9" s="137" t="str">
         <f>CONCATENATE("{{",K9, ", ", L9, ", ", M9, "}, ",ROUND(N9,0), ", ", ROUND(O9,3),"}, /* Heat level ", J9, " = ",ROUND(N9,0), " Kcal/h */")</f>
         <v>{{100, 0, 0}, 7000, 0,87}, /* Heat level 0 = 7000 Kcal/h */</v>
       </c>
     </row>
     <row r="10" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B10" s="120">
-        <v>0</v>
-      </c>
-      <c r="C10" s="120">
+      <c r="B10" s="112">
+        <v>0</v>
+      </c>
+      <c r="C10" s="112">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D10" s="120">
+      <c r="D10" s="112">
         <v>0.83333333333333326</v>
       </c>
-      <c r="E10" s="120">
+      <c r="E10" s="112">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F10" s="109">
+      <c r="F10" s="105">
         <v>7833.333333333333</v>
       </c>
       <c r="G10" s="83">
         <v>0.96833333333333327</v>
       </c>
-      <c r="I10" s="180">
+      <c r="I10" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J10" s="180">
+      <c r="J10" s="165">
         <v>1</v>
       </c>
       <c r="K10" s="29">
@@ -12256,7 +12297,7 @@
       <c r="M10" s="29">
         <v>0</v>
       </c>
-      <c r="N10" s="109">
+      <c r="N10" s="105">
         <f t="shared" ref="N10:O36" si="22">F10</f>
         <v>7833.333333333333</v>
       </c>
@@ -12264,72 +12305,72 @@
         <f t="shared" si="22"/>
         <v>0.96833333333333327</v>
       </c>
-      <c r="Q10" s="145" t="str">
+      <c r="Q10" s="137" t="str">
         <f t="shared" ref="Q10:Q36" si="23">CONCATENATE("{{",K10, ", ", L10, ", ", M10, "}, ",ROUND(N10,0), ", ", ROUND(O10,3),"}, /* Heat level ", J10, " = ",ROUND(N10,0), " Kcal/h */")</f>
         <v>{{83, 17, 0}, 7833, 0,968}, /* Heat level 1 = 7833 Kcal/h */</v>
       </c>
       <c r="S10" s="30"/>
-      <c r="V10" s="130" t="s">
+      <c r="V10" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="W10" s="130" t="s">
+      <c r="W10" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="X10" s="130" t="s">
+      <c r="X10" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="Y10" s="130" t="s">
+      <c r="Y10" s="122" t="s">
         <v>99</v>
       </c>
-      <c r="Z10" s="130" t="s">
+      <c r="Z10" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="AA10" s="130" t="s">
+      <c r="AA10" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="AB10" s="130" t="s">
+      <c r="AB10" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="AC10" s="130" t="s">
+      <c r="AC10" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="AD10" s="130" t="s">
+      <c r="AD10" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="AE10" s="130" t="s">
+      <c r="AE10" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="AF10" s="130" t="s">
+      <c r="AF10" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="AG10" s="130" t="s">
+      <c r="AG10" s="122" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B11" s="120">
-        <v>0</v>
-      </c>
-      <c r="C11" s="120">
+      <c r="B11" s="112">
+        <v>0</v>
+      </c>
+      <c r="C11" s="112">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D11" s="120">
+      <c r="D11" s="112">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E11" s="120">
+      <c r="E11" s="112">
         <v>1</v>
       </c>
-      <c r="F11" s="109">
+      <c r="F11" s="105">
         <v>8666.6666666666661</v>
       </c>
       <c r="G11" s="83">
         <v>1.0666666666666667</v>
       </c>
-      <c r="I11" s="180">
+      <c r="I11" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J11" s="180">
+      <c r="J11" s="165">
         <v>2</v>
       </c>
       <c r="K11" s="29">
@@ -12341,7 +12382,7 @@
       <c r="M11" s="29">
         <v>0</v>
       </c>
-      <c r="N11" s="109">
+      <c r="N11" s="105">
         <f t="shared" si="22"/>
         <v>8666.6666666666661</v>
       </c>
@@ -12349,12 +12390,12 @@
         <f t="shared" si="22"/>
         <v>1.0666666666666667</v>
       </c>
-      <c r="Q11" s="145" t="str">
+      <c r="Q11" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{67, 33, 0}, 8667, 1,067}, /* Heat level 2 = 8667 Kcal/h */</v>
       </c>
       <c r="S11" s="30"/>
-      <c r="V11" s="145">
+      <c r="V11" s="137">
         <f>$L$4</f>
         <v>1023</v>
       </c>
@@ -12363,7 +12404,7 @@
         <v>937</v>
       </c>
       <c r="X11" s="80">
-        <f t="shared" ref="X11:AH11" si="24">W12-1</f>
+        <f t="shared" ref="X11:AG11" si="24">W12-1</f>
         <v>851</v>
       </c>
       <c r="Y11" s="80">
@@ -12405,29 +12446,29 @@
       <c r="AH11" s="80"/>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B12" s="120">
+      <c r="B12" s="112">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C12" s="120">
-        <v>0</v>
-      </c>
-      <c r="D12" s="120">
+      <c r="C12" s="112">
+        <v>0</v>
+      </c>
+      <c r="D12" s="112">
         <v>0.83333333333333326</v>
       </c>
-      <c r="E12" s="120">
+      <c r="E12" s="112">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F12" s="109">
+      <c r="F12" s="105">
         <v>9166.6666666666661</v>
       </c>
       <c r="G12" s="83">
         <v>1.1233333333333333</v>
       </c>
-      <c r="I12" s="180">
+      <c r="I12" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J12" s="180">
+      <c r="J12" s="165">
         <v>3</v>
       </c>
       <c r="K12" s="29">
@@ -12439,7 +12480,7 @@
       <c r="M12" s="29">
         <v>17</v>
       </c>
-      <c r="N12" s="109">
+      <c r="N12" s="105">
         <f t="shared" si="22"/>
         <v>9166.6666666666661</v>
       </c>
@@ -12447,7 +12488,7 @@
         <f t="shared" si="22"/>
         <v>1.1233333333333333</v>
       </c>
-      <c r="Q12" s="145" t="str">
+      <c r="Q12" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{83, 0, 17}, 9167, 1,123}, /* Heat level 3 = 9167 Kcal/h */</v>
       </c>
@@ -12502,29 +12543,29 @@
       <c r="AH12" s="80"/>
     </row>
     <row r="13" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B13" s="120">
-        <v>0</v>
-      </c>
-      <c r="C13" s="120">
+      <c r="B13" s="112">
+        <v>0</v>
+      </c>
+      <c r="C13" s="112">
         <v>0.5</v>
       </c>
-      <c r="D13" s="120">
+      <c r="D13" s="112">
         <v>0.5</v>
       </c>
-      <c r="E13" s="120">
+      <c r="E13" s="112">
         <v>1</v>
       </c>
-      <c r="F13" s="109">
+      <c r="F13" s="105">
         <v>9500</v>
       </c>
       <c r="G13" s="83">
         <v>1.165</v>
       </c>
-      <c r="I13" s="180">
+      <c r="I13" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J13" s="180">
+      <c r="J13" s="165">
         <v>4</v>
       </c>
       <c r="K13" s="29">
@@ -12536,7 +12577,7 @@
       <c r="M13" s="29">
         <v>0</v>
       </c>
-      <c r="N13" s="109">
+      <c r="N13" s="105">
         <f t="shared" si="22"/>
         <v>9500</v>
       </c>
@@ -12544,36 +12585,36 @@
         <f t="shared" si="22"/>
         <v>1.165</v>
       </c>
-      <c r="Q13" s="145" t="str">
+      <c r="Q13" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{50, 50, 0}, 9500, 1,165}, /* Heat level 4 = 9500 Kcal/h */</v>
       </c>
       <c r="S13" s="30"/>
     </row>
     <row r="14" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B14" s="120">
+      <c r="B14" s="112">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C14" s="120">
+      <c r="C14" s="112">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D14" s="120">
+      <c r="D14" s="112">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E14" s="120">
+      <c r="E14" s="112">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F14" s="109">
+      <c r="F14" s="105">
         <v>10000</v>
       </c>
       <c r="G14" s="83">
         <v>1.2216666666666667</v>
       </c>
-      <c r="I14" s="180">
+      <c r="I14" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J14" s="180">
+      <c r="J14" s="165">
         <v>5</v>
       </c>
       <c r="K14" s="29">
@@ -12585,7 +12626,7 @@
       <c r="M14" s="29">
         <v>16</v>
       </c>
-      <c r="N14" s="109">
+      <c r="N14" s="105">
         <f t="shared" si="22"/>
         <v>10000</v>
       </c>
@@ -12593,36 +12634,36 @@
         <f t="shared" si="22"/>
         <v>1.2216666666666667</v>
       </c>
-      <c r="Q14" s="145" t="str">
+      <c r="Q14" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{67, 17, 16}, 10000, 1,222}, /* Heat level 5 = 10000 Kcal/h */</v>
       </c>
       <c r="S14" s="30"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B15" s="120">
-        <v>0</v>
-      </c>
-      <c r="C15" s="120">
+      <c r="B15" s="112">
+        <v>0</v>
+      </c>
+      <c r="C15" s="112">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D15" s="120">
+      <c r="D15" s="112">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E15" s="120">
+      <c r="E15" s="112">
         <v>1</v>
       </c>
-      <c r="F15" s="109">
+      <c r="F15" s="105">
         <v>10333.333333333332</v>
       </c>
       <c r="G15" s="83">
         <v>1.2633333333333332</v>
       </c>
-      <c r="I15" s="180">
+      <c r="I15" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J15" s="180">
+      <c r="J15" s="165">
         <v>6</v>
       </c>
       <c r="K15" s="29">
@@ -12634,7 +12675,7 @@
       <c r="M15" s="29">
         <v>0</v>
       </c>
-      <c r="N15" s="109">
+      <c r="N15" s="105">
         <f t="shared" si="22"/>
         <v>10333.333333333332</v>
       </c>
@@ -12642,36 +12683,36 @@
         <f t="shared" si="22"/>
         <v>1.2633333333333332</v>
       </c>
-      <c r="Q15" s="145" t="str">
+      <c r="Q15" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{33, 67, 0}, 10333, 1,263}, /* Heat level 6 = 10333 Kcal/h */</v>
       </c>
       <c r="S15" s="30"/>
     </row>
     <row r="16" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B16" s="120">
+      <c r="B16" s="112">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C16" s="120">
+      <c r="C16" s="112">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D16" s="120">
+      <c r="D16" s="112">
         <v>0.5</v>
       </c>
-      <c r="E16" s="120">
+      <c r="E16" s="112">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F16" s="109">
+      <c r="F16" s="105">
         <v>10833.333333333332</v>
       </c>
       <c r="G16" s="83">
         <v>1.3199999999999998</v>
       </c>
-      <c r="I16" s="180">
+      <c r="I16" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J16" s="180">
+      <c r="J16" s="165">
         <v>7</v>
       </c>
       <c r="K16" s="29">
@@ -12683,7 +12724,7 @@
       <c r="M16" s="29">
         <v>17</v>
       </c>
-      <c r="N16" s="109">
+      <c r="N16" s="105">
         <f t="shared" si="22"/>
         <v>10833.333333333332</v>
       </c>
@@ -12691,36 +12732,36 @@
         <f t="shared" si="22"/>
         <v>1.3199999999999998</v>
       </c>
-      <c r="Q16" s="145" t="str">
+      <c r="Q16" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{50, 33, 17}, 10833, 1,32}, /* Heat level 7 = 10833 Kcal/h */</v>
       </c>
       <c r="S16" s="30"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="120">
-        <v>0</v>
-      </c>
-      <c r="C17" s="120">
+      <c r="B17" s="112">
+        <v>0</v>
+      </c>
+      <c r="C17" s="112">
         <v>0.83333333333333326</v>
       </c>
-      <c r="D17" s="120">
+      <c r="D17" s="112">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E17" s="120">
+      <c r="E17" s="112">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F17" s="109">
+      <c r="F17" s="105">
         <v>11166.666666666666</v>
       </c>
       <c r="G17" s="83">
         <v>1.3616666666666666</v>
       </c>
-      <c r="I17" s="180">
+      <c r="I17" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J17" s="180">
+      <c r="J17" s="165">
         <v>8</v>
       </c>
       <c r="K17" s="29">
@@ -12732,7 +12773,7 @@
       <c r="M17" s="29">
         <v>0</v>
       </c>
-      <c r="N17" s="109">
+      <c r="N17" s="105">
         <f t="shared" si="22"/>
         <v>11166.666666666666</v>
       </c>
@@ -12740,36 +12781,36 @@
         <f t="shared" si="22"/>
         <v>1.3616666666666666</v>
       </c>
-      <c r="Q17" s="145" t="str">
+      <c r="Q17" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{17, 83, 0}, 11167, 1,362}, /* Heat level 8 = 11167 Kcal/h */</v>
       </c>
       <c r="S17" s="30"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="120">
+      <c r="B18" s="112">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C18" s="120">
-        <v>0</v>
-      </c>
-      <c r="D18" s="120">
+      <c r="C18" s="112">
+        <v>0</v>
+      </c>
+      <c r="D18" s="112">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E18" s="120">
+      <c r="E18" s="112">
         <v>1</v>
       </c>
-      <c r="F18" s="109">
+      <c r="F18" s="105">
         <v>11333.333333333332</v>
       </c>
       <c r="G18" s="83">
         <v>1.3766666666666665</v>
       </c>
-      <c r="I18" s="180">
+      <c r="I18" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J18" s="180">
+      <c r="J18" s="165">
         <v>9</v>
       </c>
       <c r="K18" s="29">
@@ -12781,7 +12822,7 @@
       <c r="M18" s="29">
         <v>33</v>
       </c>
-      <c r="N18" s="109">
+      <c r="N18" s="105">
         <f t="shared" si="22"/>
         <v>11333.333333333332</v>
       </c>
@@ -12789,36 +12830,36 @@
         <f t="shared" si="22"/>
         <v>1.3766666666666665</v>
       </c>
-      <c r="Q18" s="145" t="str">
+      <c r="Q18" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{67, 0, 33}, 11333, 1,377}, /* Heat level 9 = 11333 Kcal/h */</v>
       </c>
       <c r="S18" s="30"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="120">
+      <c r="B19" s="112">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C19" s="120">
+      <c r="C19" s="112">
         <v>0.5</v>
       </c>
-      <c r="D19" s="120">
+      <c r="D19" s="112">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E19" s="120">
+      <c r="E19" s="112">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F19" s="109">
+      <c r="F19" s="105">
         <v>11666.666666666664</v>
       </c>
       <c r="G19" s="83">
         <v>1.4183333333333334</v>
       </c>
-      <c r="I19" s="180">
+      <c r="I19" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J19" s="180">
+      <c r="J19" s="165">
         <v>10</v>
       </c>
       <c r="K19" s="29">
@@ -12830,7 +12871,7 @@
       <c r="M19" s="29">
         <v>17</v>
       </c>
-      <c r="N19" s="109">
+      <c r="N19" s="105">
         <f t="shared" si="22"/>
         <v>11666.666666666664</v>
       </c>
@@ -12838,36 +12879,36 @@
         <f t="shared" si="22"/>
         <v>1.4183333333333334</v>
       </c>
-      <c r="Q19" s="145" t="str">
+      <c r="Q19" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{33, 50, 17}, 11667, 1,418}, /* Heat level 10 = 11667 Kcal/h */</v>
       </c>
       <c r="S19" s="30"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="178">
-        <v>0</v>
-      </c>
-      <c r="C20" s="125">
+      <c r="B20" s="163">
+        <v>0</v>
+      </c>
+      <c r="C20" s="117">
         <v>0.99999999999999989</v>
       </c>
-      <c r="D20" s="125">
-        <v>0</v>
-      </c>
-      <c r="E20" s="125">
+      <c r="D20" s="117">
+        <v>0</v>
+      </c>
+      <c r="E20" s="117">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F20" s="126">
+      <c r="F20" s="118">
         <v>11999.999999999998</v>
       </c>
-      <c r="G20" s="179">
+      <c r="G20" s="164">
         <v>1.4599999999999997</v>
       </c>
-      <c r="I20" s="180">
+      <c r="I20" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J20" s="180">
+      <c r="J20" s="165">
         <v>11</v>
       </c>
       <c r="K20" s="29">
@@ -12879,7 +12920,7 @@
       <c r="M20" s="29">
         <v>0</v>
       </c>
-      <c r="N20" s="109">
+      <c r="N20" s="105">
         <f t="shared" si="22"/>
         <v>11999.999999999998</v>
       </c>
@@ -12887,36 +12928,36 @@
         <f t="shared" si="22"/>
         <v>1.4599999999999997</v>
       </c>
-      <c r="Q20" s="145" t="str">
+      <c r="Q20" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{0, 100, 0}, 12000, 1,46}, /* Heat level 11 = 12000 Kcal/h */</v>
       </c>
       <c r="S20" s="30"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="120">
+      <c r="B21" s="112">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C21" s="120">
+      <c r="C21" s="112">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D21" s="120">
+      <c r="D21" s="112">
         <v>0.5</v>
       </c>
-      <c r="E21" s="120">
+      <c r="E21" s="112">
         <v>1</v>
       </c>
-      <c r="F21" s="109">
+      <c r="F21" s="105">
         <v>12166.666666666666</v>
       </c>
       <c r="G21" s="83">
         <v>1.4750000000000001</v>
       </c>
-      <c r="I21" s="180">
+      <c r="I21" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J21" s="180">
+      <c r="J21" s="165">
         <v>12</v>
       </c>
       <c r="K21" s="29">
@@ -12928,7 +12969,7 @@
       <c r="M21" s="29">
         <v>33</v>
       </c>
-      <c r="N21" s="109">
+      <c r="N21" s="105">
         <f t="shared" si="22"/>
         <v>12166.666666666666</v>
       </c>
@@ -12936,36 +12977,36 @@
         <f t="shared" si="22"/>
         <v>1.4750000000000001</v>
       </c>
-      <c r="Q21" s="145" t="str">
+      <c r="Q21" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{50, 17, 33}, 12167, 1,475}, /* Heat level 12 = 12167 Kcal/h */</v>
       </c>
       <c r="S21" s="30"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="120">
+      <c r="B22" s="112">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C22" s="120">
+      <c r="C22" s="112">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D22" s="120">
+      <c r="D22" s="112">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E22" s="120">
+      <c r="E22" s="112">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F22" s="109">
+      <c r="F22" s="105">
         <v>12500</v>
       </c>
       <c r="G22" s="83">
         <v>1.5166666666666666</v>
       </c>
-      <c r="I22" s="180">
+      <c r="I22" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J22" s="180">
+      <c r="J22" s="165">
         <v>13</v>
       </c>
       <c r="K22" s="29">
@@ -12977,7 +13018,7 @@
       <c r="M22" s="29">
         <v>16</v>
       </c>
-      <c r="N22" s="109">
+      <c r="N22" s="105">
         <f t="shared" si="22"/>
         <v>12500</v>
       </c>
@@ -12985,36 +13026,36 @@
         <f t="shared" si="22"/>
         <v>1.5166666666666666</v>
       </c>
-      <c r="Q22" s="145" t="str">
+      <c r="Q22" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{17, 67, 16}, 12500, 1,517}, /* Heat level 13 = 12500 Kcal/h */</v>
       </c>
       <c r="S22" s="30"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="120">
+      <c r="B23" s="112">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C23" s="120">
+      <c r="C23" s="112">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D23" s="120">
+      <c r="D23" s="112">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E23" s="120">
+      <c r="E23" s="112">
         <v>1</v>
       </c>
-      <c r="F23" s="109">
+      <c r="F23" s="105">
         <v>13000</v>
       </c>
       <c r="G23" s="83">
         <v>1.5733333333333333</v>
       </c>
-      <c r="I23" s="180">
+      <c r="I23" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J23" s="180">
+      <c r="J23" s="165">
         <v>14</v>
       </c>
       <c r="K23" s="29">
@@ -13026,7 +13067,7 @@
       <c r="M23" s="29">
         <v>33</v>
       </c>
-      <c r="N23" s="109">
+      <c r="N23" s="105">
         <f t="shared" si="22"/>
         <v>13000</v>
       </c>
@@ -13034,36 +13075,36 @@
         <f t="shared" si="22"/>
         <v>1.5733333333333333</v>
       </c>
-      <c r="Q23" s="145" t="str">
+      <c r="Q23" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{34, 33, 33}, 13000, 1,573}, /* Heat level 14 = 13000 Kcal/h */</v>
       </c>
       <c r="S23" s="30"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="120">
+      <c r="B24" s="112">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C24" s="120">
+      <c r="C24" s="112">
         <v>0.83333333333333326</v>
       </c>
-      <c r="D24" s="120">
-        <v>0</v>
-      </c>
-      <c r="E24" s="120">
+      <c r="D24" s="112">
+        <v>0</v>
+      </c>
+      <c r="E24" s="112">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F24" s="109">
+      <c r="F24" s="105">
         <v>13333.333333333332</v>
       </c>
       <c r="G24" s="83">
         <v>1.6149999999999998</v>
       </c>
-      <c r="I24" s="180">
+      <c r="I24" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J24" s="180">
+      <c r="J24" s="165">
         <v>15</v>
       </c>
       <c r="K24" s="29">
@@ -13075,7 +13116,7 @@
       <c r="M24" s="29">
         <v>17</v>
       </c>
-      <c r="N24" s="109">
+      <c r="N24" s="105">
         <f t="shared" si="22"/>
         <v>13333.333333333332</v>
       </c>
@@ -13083,36 +13124,36 @@
         <f t="shared" si="22"/>
         <v>1.6149999999999998</v>
       </c>
-      <c r="Q24" s="145" t="str">
+      <c r="Q24" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{0, 83, 17}, 13333, 1,615}, /* Heat level 15 = 13333 Kcal/h */</v>
       </c>
       <c r="S24" s="30"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="120">
+      <c r="B25" s="112">
         <v>0.5</v>
       </c>
-      <c r="C25" s="120">
-        <v>0</v>
-      </c>
-      <c r="D25" s="120">
+      <c r="C25" s="112">
+        <v>0</v>
+      </c>
+      <c r="D25" s="112">
         <v>0.5</v>
       </c>
-      <c r="E25" s="120">
+      <c r="E25" s="112">
         <v>1</v>
       </c>
-      <c r="F25" s="109">
+      <c r="F25" s="105">
         <v>13500</v>
       </c>
       <c r="G25" s="83">
         <v>1.6300000000000001</v>
       </c>
-      <c r="I25" s="180">
+      <c r="I25" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J25" s="180">
+      <c r="J25" s="165">
         <v>16</v>
       </c>
       <c r="K25" s="29">
@@ -13124,7 +13165,7 @@
       <c r="M25" s="29">
         <v>50</v>
       </c>
-      <c r="N25" s="109">
+      <c r="N25" s="105">
         <f t="shared" si="22"/>
         <v>13500</v>
       </c>
@@ -13132,36 +13173,36 @@
         <f t="shared" si="22"/>
         <v>1.6300000000000001</v>
       </c>
-      <c r="Q25" s="145" t="str">
+      <c r="Q25" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{50, 0, 50}, 13500, 1,63}, /* Heat level 16 = 13500 Kcal/h */</v>
       </c>
       <c r="S25" s="30"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="120">
+      <c r="B26" s="112">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C26" s="120">
+      <c r="C26" s="112">
         <v>0.5</v>
       </c>
-      <c r="D26" s="120">
+      <c r="D26" s="112">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E26" s="120">
+      <c r="E26" s="112">
         <v>1</v>
       </c>
-      <c r="F26" s="109">
+      <c r="F26" s="105">
         <v>13833.333333333332</v>
       </c>
       <c r="G26" s="83">
         <v>1.6716666666666666</v>
       </c>
-      <c r="I26" s="180">
+      <c r="I26" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J26" s="180">
+      <c r="J26" s="165">
         <v>17</v>
       </c>
       <c r="K26" s="29">
@@ -13173,7 +13214,7 @@
       <c r="M26" s="29">
         <v>33</v>
       </c>
-      <c r="N26" s="109">
+      <c r="N26" s="105">
         <f t="shared" si="22"/>
         <v>13833.333333333332</v>
       </c>
@@ -13181,36 +13222,36 @@
         <f t="shared" si="22"/>
         <v>1.6716666666666666</v>
       </c>
-      <c r="Q26" s="145" t="str">
+      <c r="Q26" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{17, 50, 33}, 13833, 1,672}, /* Heat level 17 = 13833 Kcal/h */</v>
       </c>
       <c r="S26" s="30"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="120">
+      <c r="B27" s="112">
         <v>0.5</v>
       </c>
-      <c r="C27" s="120">
+      <c r="C27" s="112">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D27" s="120">
+      <c r="D27" s="112">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E27" s="120">
+      <c r="E27" s="112">
         <v>1</v>
       </c>
-      <c r="F27" s="109">
+      <c r="F27" s="105">
         <v>14333.333333333332</v>
       </c>
       <c r="G27" s="83">
         <v>1.7283333333333335</v>
       </c>
-      <c r="I27" s="180">
+      <c r="I27" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J27" s="180">
+      <c r="J27" s="165">
         <v>18</v>
       </c>
       <c r="K27" s="29">
@@ -13222,7 +13263,7 @@
       <c r="M27" s="29">
         <v>50</v>
       </c>
-      <c r="N27" s="109">
+      <c r="N27" s="105">
         <f t="shared" si="22"/>
         <v>14333.333333333332</v>
       </c>
@@ -13230,36 +13271,36 @@
         <f t="shared" si="22"/>
         <v>1.7283333333333335</v>
       </c>
-      <c r="Q27" s="145" t="str">
+      <c r="Q27" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{33, 17, 50}, 14333, 1,728}, /* Heat level 18 = 14333 Kcal/h */</v>
       </c>
       <c r="S27" s="30"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="120">
+      <c r="B28" s="112">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C28" s="120">
+      <c r="C28" s="112">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D28" s="120">
-        <v>0</v>
-      </c>
-      <c r="E28" s="120">
+      <c r="D28" s="112">
+        <v>0</v>
+      </c>
+      <c r="E28" s="112">
         <v>1</v>
       </c>
-      <c r="F28" s="109">
+      <c r="F28" s="105">
         <v>14666.666666666666</v>
       </c>
       <c r="G28" s="83">
         <v>1.77</v>
       </c>
-      <c r="I28" s="180">
+      <c r="I28" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J28" s="180">
+      <c r="J28" s="165">
         <v>19</v>
       </c>
       <c r="K28" s="29">
@@ -13271,7 +13312,7 @@
       <c r="M28" s="29">
         <v>33</v>
       </c>
-      <c r="N28" s="109">
+      <c r="N28" s="105">
         <f t="shared" si="22"/>
         <v>14666.666666666666</v>
       </c>
@@ -13279,36 +13320,36 @@
         <f t="shared" si="22"/>
         <v>1.77</v>
       </c>
-      <c r="Q28" s="145" t="str">
+      <c r="Q28" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{0, 67, 33}, 14667, 1,77}, /* Heat level 19 = 14667 Kcal/h */</v>
       </c>
       <c r="S28" s="30"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="120">
+      <c r="B29" s="112">
         <v>0.5</v>
       </c>
-      <c r="C29" s="120">
+      <c r="C29" s="112">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D29" s="120">
+      <c r="D29" s="112">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E29" s="120">
+      <c r="E29" s="112">
         <v>1</v>
       </c>
-      <c r="F29" s="109">
+      <c r="F29" s="105">
         <v>15166.666666666666</v>
       </c>
       <c r="G29" s="83">
         <v>1.8266666666666667</v>
       </c>
-      <c r="I29" s="180">
+      <c r="I29" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J29" s="180">
+      <c r="J29" s="165">
         <v>20</v>
       </c>
       <c r="K29" s="29">
@@ -13320,7 +13361,7 @@
       <c r="M29" s="29">
         <v>50</v>
       </c>
-      <c r="N29" s="109">
+      <c r="N29" s="105">
         <f t="shared" si="22"/>
         <v>15166.666666666666</v>
       </c>
@@ -13328,36 +13369,36 @@
         <f t="shared" si="22"/>
         <v>1.8266666666666667</v>
       </c>
-      <c r="Q29" s="145" t="str">
+      <c r="Q29" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{17, 33, 50}, 15167, 1,827}, /* Heat level 20 = 15167 Kcal/h */</v>
       </c>
       <c r="S29" s="30"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="120">
+      <c r="B30" s="112">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C30" s="120">
-        <v>0</v>
-      </c>
-      <c r="D30" s="120">
+      <c r="C30" s="112">
+        <v>0</v>
+      </c>
+      <c r="D30" s="112">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E30" s="120">
+      <c r="E30" s="112">
         <v>1</v>
       </c>
-      <c r="F30" s="109">
+      <c r="F30" s="105">
         <v>15666.666666666664</v>
       </c>
       <c r="G30" s="83">
         <v>1.8833333333333333</v>
       </c>
-      <c r="I30" s="180">
+      <c r="I30" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J30" s="180">
+      <c r="J30" s="165">
         <v>21</v>
       </c>
       <c r="K30" s="29">
@@ -13369,7 +13410,7 @@
       <c r="M30" s="29">
         <v>67</v>
       </c>
-      <c r="N30" s="109">
+      <c r="N30" s="105">
         <f t="shared" si="22"/>
         <v>15666.666666666664</v>
       </c>
@@ -13377,36 +13418,36 @@
         <f t="shared" si="22"/>
         <v>1.8833333333333333</v>
       </c>
-      <c r="Q30" s="145" t="str">
+      <c r="Q30" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{33, 0, 67}, 15667, 1,883}, /* Heat level 21 = 15667 Kcal/h */</v>
       </c>
       <c r="S30" s="30"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="120">
+      <c r="B31" s="112">
         <v>0.5</v>
       </c>
-      <c r="C31" s="120">
+      <c r="C31" s="112">
         <v>0.5</v>
       </c>
-      <c r="D31" s="120">
-        <v>0</v>
-      </c>
-      <c r="E31" s="120">
+      <c r="D31" s="112">
+        <v>0</v>
+      </c>
+      <c r="E31" s="112">
         <v>1</v>
       </c>
-      <c r="F31" s="109">
+      <c r="F31" s="105">
         <v>16000</v>
       </c>
       <c r="G31" s="83">
         <v>1.925</v>
       </c>
-      <c r="I31" s="180">
+      <c r="I31" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J31" s="180">
+      <c r="J31" s="165">
         <v>22</v>
       </c>
       <c r="K31" s="29">
@@ -13418,7 +13459,7 @@
       <c r="M31" s="29">
         <v>50</v>
       </c>
-      <c r="N31" s="109">
+      <c r="N31" s="105">
         <f t="shared" si="22"/>
         <v>16000</v>
       </c>
@@ -13426,36 +13467,36 @@
         <f t="shared" si="22"/>
         <v>1.925</v>
       </c>
-      <c r="Q31" s="145" t="str">
+      <c r="Q31" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{0, 50, 50}, 16000, 1,925}, /* Heat level 22 = 16000 Kcal/h */</v>
       </c>
       <c r="S31" s="30"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="120">
+      <c r="B32" s="112">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C32" s="120">
+      <c r="C32" s="112">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D32" s="120">
+      <c r="D32" s="112">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E32" s="120">
+      <c r="E32" s="112">
         <v>1</v>
       </c>
-      <c r="F32" s="109">
+      <c r="F32" s="105">
         <v>16500</v>
       </c>
       <c r="G32" s="83">
         <v>1.9816666666666665</v>
       </c>
-      <c r="I32" s="180">
+      <c r="I32" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J32" s="180">
+      <c r="J32" s="165">
         <v>23</v>
       </c>
       <c r="K32" s="29">
@@ -13467,7 +13508,7 @@
       <c r="M32" s="29">
         <v>66</v>
       </c>
-      <c r="N32" s="109">
+      <c r="N32" s="105">
         <f t="shared" si="22"/>
         <v>16500</v>
       </c>
@@ -13475,36 +13516,36 @@
         <f t="shared" si="22"/>
         <v>1.9816666666666665</v>
       </c>
-      <c r="Q32" s="145" t="str">
+      <c r="Q32" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{17, 17, 66}, 16500, 1,982}, /* Heat level 23 = 16500 Kcal/h */</v>
       </c>
       <c r="S32" s="30"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="120">
+      <c r="B33" s="112">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C33" s="120">
+      <c r="C33" s="112">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D33" s="120">
-        <v>0</v>
-      </c>
-      <c r="E33" s="120">
+      <c r="D33" s="112">
+        <v>0</v>
+      </c>
+      <c r="E33" s="112">
         <v>1</v>
       </c>
-      <c r="F33" s="109">
+      <c r="F33" s="105">
         <v>17333.333333333332</v>
       </c>
       <c r="G33" s="83">
         <v>2.08</v>
       </c>
-      <c r="I33" s="180">
+      <c r="I33" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J33" s="180">
+      <c r="J33" s="165">
         <v>24</v>
       </c>
       <c r="K33" s="29">
@@ -13516,7 +13557,7 @@
       <c r="M33" s="29">
         <v>67</v>
       </c>
-      <c r="N33" s="109">
+      <c r="N33" s="105">
         <f t="shared" si="22"/>
         <v>17333.333333333332</v>
       </c>
@@ -13524,36 +13565,36 @@
         <f t="shared" si="22"/>
         <v>2.08</v>
       </c>
-      <c r="Q33" s="145" t="str">
+      <c r="Q33" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{0, 33, 67}, 17333, 2,08}, /* Heat level 24 = 17333 Kcal/h */</v>
       </c>
       <c r="S33" s="30"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="120">
+      <c r="B34" s="112">
         <v>0.83333333333333326</v>
       </c>
-      <c r="C34" s="120">
-        <v>0</v>
-      </c>
-      <c r="D34" s="120">
+      <c r="C34" s="112">
+        <v>0</v>
+      </c>
+      <c r="D34" s="112">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E34" s="120">
+      <c r="E34" s="112">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F34" s="109">
+      <c r="F34" s="105">
         <v>17833.333333333332</v>
       </c>
       <c r="G34" s="83">
         <v>2.1366666666666667</v>
       </c>
-      <c r="I34" s="180">
+      <c r="I34" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J34" s="180">
+      <c r="J34" s="165">
         <v>25</v>
       </c>
       <c r="K34" s="29">
@@ -13565,7 +13606,7 @@
       <c r="M34" s="29">
         <v>83</v>
       </c>
-      <c r="N34" s="109">
+      <c r="N34" s="105">
         <f t="shared" si="22"/>
         <v>17833.333333333332</v>
       </c>
@@ -13573,36 +13614,36 @@
         <f t="shared" si="22"/>
         <v>2.1366666666666667</v>
       </c>
-      <c r="Q34" s="145" t="str">
+      <c r="Q34" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{17, 0, 83}, 17833, 2,137}, /* Heat level 25 = 17833 Kcal/h */</v>
       </c>
       <c r="S34" s="30"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="120">
+      <c r="B35" s="112">
         <v>0.83333333333333326</v>
       </c>
-      <c r="C35" s="120">
+      <c r="C35" s="112">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D35" s="120">
-        <v>0</v>
-      </c>
-      <c r="E35" s="120">
+      <c r="D35" s="112">
+        <v>0</v>
+      </c>
+      <c r="E35" s="112">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F35" s="109">
+      <c r="F35" s="105">
         <v>18666.666666666664</v>
       </c>
       <c r="G35" s="83">
         <v>2.2349999999999999</v>
       </c>
-      <c r="I35" s="180">
+      <c r="I35" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J35" s="180">
+      <c r="J35" s="165">
         <v>26</v>
       </c>
       <c r="K35" s="29">
@@ -13614,7 +13655,7 @@
       <c r="M35" s="29">
         <v>83</v>
       </c>
-      <c r="N35" s="109">
+      <c r="N35" s="105">
         <f t="shared" si="22"/>
         <v>18666.666666666664</v>
       </c>
@@ -13622,36 +13663,36 @@
         <f t="shared" si="22"/>
         <v>2.2349999999999999</v>
       </c>
-      <c r="Q35" s="145" t="str">
+      <c r="Q35" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{0, 17, 83}, 18667, 2,235}, /* Heat level 26 = 18667 Kcal/h */</v>
       </c>
       <c r="S35" s="30"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="120">
+      <c r="B36" s="112">
         <v>0.99999999999999989</v>
       </c>
-      <c r="C36" s="120">
-        <v>0</v>
-      </c>
-      <c r="D36" s="120">
-        <v>0</v>
-      </c>
-      <c r="E36" s="120">
+      <c r="C36" s="112">
+        <v>0</v>
+      </c>
+      <c r="D36" s="112">
+        <v>0</v>
+      </c>
+      <c r="E36" s="112">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F36" s="109">
+      <c r="F36" s="105">
         <v>19999.999999999996</v>
       </c>
       <c r="G36" s="83">
         <v>2.3899999999999997</v>
       </c>
-      <c r="I36" s="180">
+      <c r="I36" s="165">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="J36" s="180">
+      <c r="J36" s="165">
         <v>27</v>
       </c>
       <c r="K36" s="29">
@@ -13663,7 +13704,7 @@
       <c r="M36" s="29">
         <v>100</v>
       </c>
-      <c r="N36" s="109">
+      <c r="N36" s="105">
         <f t="shared" si="22"/>
         <v>19999.999999999996</v>
       </c>
@@ -13671,7 +13712,7 @@
         <f t="shared" si="22"/>
         <v>2.3899999999999997</v>
       </c>
-      <c r="Q36" s="145" t="str">
+      <c r="Q36" s="137" t="str">
         <f t="shared" si="23"/>
         <v>{{0, 0, 100}, 20000, 2,39}, /* Heat level 27 = 20000 Kcal/h */</v>
       </c>
@@ -13712,432 +13753,432 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="158">
+      <c r="B1" s="150">
         <v>10</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="157" t="s">
+      <c r="C1" s="137"/>
+      <c r="D1" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="158">
+      <c r="E1" s="150">
         <v>1024</v>
       </c>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="144"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="145"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
+      <c r="A4" s="137"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="151">
+      <c r="B5" s="143">
         <v>-40</v>
       </c>
-      <c r="C5" s="146">
+      <c r="C5" s="138">
         <v>-30</v>
       </c>
-      <c r="D5" s="146">
+      <c r="D5" s="138">
         <v>-20</v>
       </c>
-      <c r="E5" s="146">
+      <c r="E5" s="138">
         <v>-10</v>
       </c>
-      <c r="F5" s="146">
-        <v>0</v>
-      </c>
-      <c r="G5" s="146">
+      <c r="F5" s="138">
+        <v>0</v>
+      </c>
+      <c r="G5" s="138">
         <v>10</v>
       </c>
-      <c r="H5" s="146">
+      <c r="H5" s="138">
         <v>20</v>
       </c>
-      <c r="I5" s="146">
+      <c r="I5" s="138">
         <v>30</v>
       </c>
-      <c r="J5" s="146">
+      <c r="J5" s="138">
         <v>40</v>
       </c>
-      <c r="K5" s="146">
+      <c r="K5" s="138">
         <v>50</v>
       </c>
-      <c r="L5" s="146">
+      <c r="L5" s="138">
         <v>60</v>
       </c>
-      <c r="M5" s="147">
+      <c r="M5" s="139">
         <v>70</v>
       </c>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="152">
+      <c r="B6" s="144">
         <v>188.5</v>
       </c>
-      <c r="C6" s="148">
+      <c r="C6" s="140">
         <v>111.3</v>
       </c>
-      <c r="D6" s="148">
+      <c r="D6" s="140">
         <v>67.77</v>
       </c>
-      <c r="E6" s="148">
+      <c r="E6" s="140">
         <v>42.47</v>
       </c>
-      <c r="F6" s="148">
+      <c r="F6" s="140">
         <v>27.28</v>
       </c>
-      <c r="G6" s="148">
+      <c r="G6" s="140">
         <v>17.96</v>
       </c>
-      <c r="H6" s="148">
+      <c r="H6" s="140">
         <v>12.09</v>
       </c>
-      <c r="I6" s="148">
+      <c r="I6" s="140">
         <v>8.3130000000000006</v>
       </c>
-      <c r="J6" s="148">
+      <c r="J6" s="140">
         <v>5.827</v>
       </c>
-      <c r="K6" s="148">
+      <c r="K6" s="140">
         <v>4.16</v>
       </c>
-      <c r="L6" s="148">
+      <c r="L6" s="140">
         <v>3.02</v>
       </c>
-      <c r="M6" s="149">
+      <c r="M6" s="141">
         <v>2.2280000000000002</v>
       </c>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="156" t="s">
+      <c r="A7" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="153">
+      <c r="B7" s="145">
         <f>INT($E1*B6/(B6+$B1))</f>
         <v>972</v>
       </c>
-      <c r="C7" s="153">
+      <c r="C7" s="145">
         <f t="shared" ref="C7:M7" si="0">INT($E1*C6/(C6+$B1))</f>
         <v>939</v>
       </c>
-      <c r="D7" s="153">
+      <c r="D7" s="145">
         <f t="shared" si="0"/>
         <v>892</v>
       </c>
-      <c r="E7" s="153">
+      <c r="E7" s="145">
         <f t="shared" si="0"/>
         <v>828</v>
       </c>
-      <c r="F7" s="153">
+      <c r="F7" s="145">
         <f t="shared" si="0"/>
         <v>749</v>
       </c>
-      <c r="G7" s="153">
+      <c r="G7" s="145">
         <f t="shared" si="0"/>
         <v>657</v>
       </c>
-      <c r="H7" s="153">
+      <c r="H7" s="145">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="I7" s="153">
+      <c r="I7" s="145">
         <f t="shared" si="0"/>
         <v>464</v>
       </c>
-      <c r="J7" s="153">
+      <c r="J7" s="145">
         <f t="shared" si="0"/>
         <v>377</v>
       </c>
-      <c r="K7" s="153">
+      <c r="K7" s="145">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="L7" s="153">
+      <c r="L7" s="145">
         <f t="shared" si="0"/>
         <v>237</v>
       </c>
-      <c r="M7" s="153">
+      <c r="M7" s="145">
         <f t="shared" si="0"/>
         <v>186</v>
       </c>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="144"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="144"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="145"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="154" t="s">
+      <c r="A11" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="146">
+      <c r="B11" s="138">
         <v>-20</v>
       </c>
-      <c r="C11" s="146">
+      <c r="C11" s="138">
         <v>-10</v>
       </c>
-      <c r="D11" s="146">
-        <v>0</v>
-      </c>
-      <c r="E11" s="146">
+      <c r="D11" s="138">
+        <v>0</v>
+      </c>
+      <c r="E11" s="138">
         <v>10</v>
       </c>
-      <c r="F11" s="146">
+      <c r="F11" s="138">
         <v>20</v>
       </c>
-      <c r="G11" s="146">
+      <c r="G11" s="138">
         <v>30</v>
       </c>
-      <c r="H11" s="146">
+      <c r="H11" s="138">
         <v>40</v>
       </c>
-      <c r="I11" s="146">
+      <c r="I11" s="138">
         <v>50</v>
       </c>
-      <c r="J11" s="146">
+      <c r="J11" s="138">
         <v>60</v>
       </c>
-      <c r="K11" s="146">
+      <c r="K11" s="138">
         <v>70</v>
       </c>
-      <c r="L11" s="146">
+      <c r="L11" s="138">
         <v>80</v>
       </c>
-      <c r="M11" s="147">
+      <c r="M11" s="139">
         <v>90</v>
       </c>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="155" t="s">
+      <c r="A12" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="159">
+      <c r="B12" s="151">
         <v>98.66</v>
       </c>
-      <c r="C12" s="159">
+      <c r="C12" s="151">
         <v>56.25</v>
       </c>
-      <c r="D12" s="159">
+      <c r="D12" s="151">
         <v>33.21</v>
       </c>
-      <c r="E12" s="159">
+      <c r="E12" s="151">
         <v>20.239999999999998</v>
       </c>
-      <c r="F12" s="159">
+      <c r="F12" s="151">
         <v>12.71</v>
       </c>
-      <c r="G12" s="159">
+      <c r="G12" s="151">
         <v>8.1940000000000008</v>
       </c>
-      <c r="H12" s="159">
+      <c r="H12" s="151">
         <v>5.4160000000000004</v>
       </c>
-      <c r="I12" s="159">
+      <c r="I12" s="151">
         <v>3.6629999999999998</v>
       </c>
-      <c r="J12" s="159">
+      <c r="J12" s="151">
         <v>2.5299999999999998</v>
       </c>
-      <c r="K12" s="159">
+      <c r="K12" s="151">
         <v>1.782</v>
       </c>
-      <c r="L12" s="159">
+      <c r="L12" s="151">
         <v>1.278</v>
       </c>
-      <c r="M12" s="160">
+      <c r="M12" s="152">
         <v>0.93159999999999998</v>
       </c>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="156" t="s">
+      <c r="A13" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="161">
+      <c r="B13" s="153">
         <f>INT($E1*B12/(B12+$B1))</f>
         <v>929</v>
       </c>
-      <c r="C13" s="161">
+      <c r="C13" s="153">
         <f t="shared" ref="C13:M13" si="1">INT($E1*C12/(C12+$B1))</f>
         <v>869</v>
       </c>
-      <c r="D13" s="162">
+      <c r="D13" s="154">
         <f t="shared" si="1"/>
         <v>787</v>
       </c>
-      <c r="E13" s="161">
+      <c r="E13" s="153">
         <f t="shared" si="1"/>
         <v>685</v>
       </c>
-      <c r="F13" s="161">
+      <c r="F13" s="153">
         <f t="shared" si="1"/>
         <v>573</v>
       </c>
-      <c r="G13" s="161">
+      <c r="G13" s="153">
         <f t="shared" si="1"/>
         <v>461</v>
       </c>
-      <c r="H13" s="161">
+      <c r="H13" s="153">
         <f t="shared" si="1"/>
         <v>359</v>
       </c>
-      <c r="I13" s="161">
+      <c r="I13" s="153">
         <f t="shared" si="1"/>
         <v>274</v>
       </c>
-      <c r="J13" s="161">
+      <c r="J13" s="153">
         <f t="shared" si="1"/>
         <v>206</v>
       </c>
-      <c r="K13" s="161">
+      <c r="K13" s="153">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="L13" s="161">
+      <c r="L13" s="153">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="M13" s="161">
+      <c r="M13" s="153">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="144"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" t="s">

--- a/electronics/worksheets/Open-Boiler.xlsx
+++ b/electronics/worksheets/Open-Boiler.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcasanova\Source\Repos\GitHub\open-boiler\electronics\worksheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\casanovg\Desktop\open-boiler-testbed\electronics\worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F7A0A5-30E4-4808-AE3D-6E68798B6EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49B1E74-9C42-4B83-82E7-2A52B8F82CA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="1500" windowWidth="20880" windowHeight="13410" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T7335D Datasheet" sheetId="4" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="101">
   <si>
     <t xml:space="preserve"> NTC thermistor table</t>
   </si>
@@ -533,7 +533,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,14 +643,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1062,7 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1346,6 +1338,14 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1367,23 +1367,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="3" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1567,7 +1556,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1692,7 +1681,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1953,7 +1942,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1991,7 +1980,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="946760864"/>
@@ -2098,7 +2087,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2136,7 +2125,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="950936336"/>
@@ -2169,7 +2158,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:txPr>
           </c:dispUnitsLbl>
@@ -2209,7 +2198,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2285,7 +2274,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2365,7 +2354,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2577,7 +2566,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2615,7 +2604,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="946760864"/>
@@ -2684,7 +2673,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2722,7 +2711,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="950936336"/>
@@ -2763,7 +2752,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4543,14 +4532,14 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="168"/>
-      <c r="D4" s="167" t="s">
+      <c r="C4" s="172"/>
+      <c r="D4" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="168"/>
+      <c r="E4" s="172"/>
       <c r="G4" s="18" t="str">
         <f>B4</f>
         <v>Temperature</v>
@@ -6262,14 +6251,14 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="169" t="s">
+      <c r="C4" s="174"/>
+      <c r="D4" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="170"/>
+      <c r="E4" s="174"/>
       <c r="G4" s="22" t="str">
         <f>B4</f>
         <v>Temperature</v>
@@ -6701,10 +6690,10 @@
       <c r="E21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="171" t="s">
+      <c r="G21" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="172"/>
+      <c r="H21" s="176"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
@@ -7062,7 +7051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B29436D-DFE2-4DAF-A0BC-2A553066C113}">
   <dimension ref="B2:X148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="R87" sqref="R87"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8876,7 +8867,7 @@
         <f t="shared" si="6"/>
         <v>-2.8205128205128216E-2</v>
       </c>
-      <c r="P61" s="173" t="s">
+      <c r="P61" s="177" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8900,7 +8891,7 @@
         <f t="shared" si="6"/>
         <v>-2.6385224274406371E-2</v>
       </c>
-      <c r="P62" s="173"/>
+      <c r="P62" s="177"/>
     </row>
     <row r="63" spans="7:16" x14ac:dyDescent="0.25">
       <c r="J63" s="84">
@@ -8923,7 +8914,7 @@
         <f t="shared" si="6"/>
         <v>-2.7100271002710064E-2</v>
       </c>
-      <c r="P63" s="173"/>
+      <c r="P63" s="177"/>
     </row>
     <row r="64" spans="7:16" x14ac:dyDescent="0.25">
       <c r="J64" s="97">
@@ -8945,7 +8936,7 @@
         <f t="shared" si="6"/>
         <v>-2.2284122562674091E-2</v>
       </c>
-      <c r="P64" s="173"/>
+      <c r="P64" s="177"/>
     </row>
     <row r="65" spans="7:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J65" s="97">
@@ -8967,7 +8958,7 @@
         <f t="shared" si="6"/>
         <v>-2.5641025641025661E-2</v>
       </c>
-      <c r="P65" s="173"/>
+      <c r="P65" s="177"/>
     </row>
     <row r="66" spans="7:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J66" s="97">
@@ -8989,7 +8980,7 @@
         <f t="shared" si="6"/>
         <v>-2.3391812865497075E-2</v>
       </c>
-      <c r="P66" s="173"/>
+      <c r="P66" s="177"/>
     </row>
     <row r="67" spans="7:24" x14ac:dyDescent="0.25">
       <c r="J67" s="97">
@@ -9011,7 +9002,7 @@
         <f t="shared" si="6"/>
         <v>-2.6946107784431184E-2</v>
       </c>
-      <c r="P67" s="173"/>
+      <c r="P67" s="177"/>
     </row>
     <row r="68" spans="7:24" x14ac:dyDescent="0.25">
       <c r="J68" s="97">
@@ -9033,7 +9024,7 @@
         <f t="shared" si="6"/>
         <v>-2.4615384615384595E-2</v>
       </c>
-      <c r="P68" s="173"/>
+      <c r="P68" s="177"/>
     </row>
     <row r="69" spans="7:24" x14ac:dyDescent="0.25">
       <c r="J69" s="97">
@@ -9055,7 +9046,7 @@
         <f t="shared" ref="N69:N132" si="15">(L69/L68)-1</f>
         <v>-2.8391167192429068E-2</v>
       </c>
-      <c r="P69" s="173"/>
+      <c r="P69" s="177"/>
     </row>
     <row r="70" spans="7:24" x14ac:dyDescent="0.25">
       <c r="J70" s="97">
@@ -9077,7 +9068,7 @@
         <f t="shared" si="15"/>
         <v>-2.5974025974025983E-2</v>
       </c>
-      <c r="P70" s="173"/>
+      <c r="P70" s="177"/>
     </row>
     <row r="71" spans="7:24" x14ac:dyDescent="0.25">
       <c r="J71" s="97">
@@ -9099,7 +9090,7 @@
         <f t="shared" si="15"/>
         <v>-3.0000000000000027E-2</v>
       </c>
-      <c r="P71" s="173"/>
+      <c r="P71" s="177"/>
     </row>
     <row r="72" spans="7:24" x14ac:dyDescent="0.25">
       <c r="J72" s="97">
@@ -9121,7 +9112,7 @@
         <f t="shared" si="15"/>
         <v>-2.7491408934707917E-2</v>
       </c>
-      <c r="P72" s="173"/>
+      <c r="P72" s="177"/>
       <c r="V72" t="s">
         <v>13</v>
       </c>
@@ -9150,7 +9141,7 @@
         <f t="shared" si="15"/>
         <v>-3.180212014134276E-2</v>
       </c>
-      <c r="P73" s="173"/>
+      <c r="P73" s="177"/>
       <c r="V73">
         <v>257</v>
       </c>
@@ -9181,7 +9172,7 @@
         <f t="shared" si="15"/>
         <v>-2.5547445255474477E-2</v>
       </c>
-      <c r="P74" s="173"/>
+      <c r="P74" s="177"/>
     </row>
     <row r="75" spans="7:24" x14ac:dyDescent="0.25">
       <c r="J75" s="97">
@@ -9203,7 +9194,7 @@
         <f t="shared" si="15"/>
         <v>-2.2471910112359605E-2</v>
       </c>
-      <c r="P75" s="173"/>
+      <c r="P75" s="177"/>
       <c r="V75">
         <v>300</v>
       </c>
@@ -9234,7 +9225,7 @@
         <f t="shared" si="15"/>
         <v>-2.6819923371647514E-2</v>
       </c>
-      <c r="P76" s="173"/>
+      <c r="P76" s="177"/>
     </row>
     <row r="77" spans="7:24" x14ac:dyDescent="0.25">
       <c r="J77" s="97">
@@ -9256,7 +9247,7 @@
         <f t="shared" si="15"/>
         <v>-2.7559055118110187E-2</v>
       </c>
-      <c r="P77" s="173"/>
+      <c r="P77" s="177"/>
     </row>
     <row r="78" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G78" s="128" t="s">
@@ -9283,7 +9274,7 @@
         <f t="shared" si="15"/>
         <v>-2.4291497975708509E-2</v>
       </c>
-      <c r="P78" s="173"/>
+      <c r="P78" s="177"/>
     </row>
     <row r="79" spans="7:24" x14ac:dyDescent="0.25">
       <c r="J79" s="85">
@@ -9297,11 +9288,11 @@
         <f t="shared" si="13"/>
         <v>234</v>
       </c>
-      <c r="M79" s="174" t="str">
+      <c r="M79" s="167" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N79" s="175">
+      <c r="N79" s="168">
         <f t="shared" si="15"/>
         <v>-2.9045643153526979E-2</v>
       </c>
@@ -9319,11 +9310,11 @@
         <f t="shared" si="13"/>
         <v>227</v>
       </c>
-      <c r="M80" s="174" t="str">
+      <c r="M80" s="167" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N80" s="175">
+      <c r="N80" s="168">
         <f t="shared" si="15"/>
         <v>-2.9914529914529919E-2</v>
       </c>
@@ -9341,11 +9332,11 @@
         <f t="shared" si="13"/>
         <v>220</v>
       </c>
-      <c r="M81" s="174" t="str">
+      <c r="M81" s="167" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N81" s="175">
+      <c r="N81" s="168">
         <f t="shared" si="15"/>
         <v>-3.0837004405286361E-2</v>
       </c>
@@ -9363,11 +9354,11 @@
         <f t="shared" si="13"/>
         <v>214</v>
       </c>
-      <c r="M82" s="174" t="str">
+      <c r="M82" s="167" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N82" s="175">
+      <c r="N82" s="168">
         <f t="shared" si="15"/>
         <v>-2.7272727272727226E-2</v>
       </c>
@@ -9407,11 +9398,11 @@
         <f t="shared" si="13"/>
         <v>202</v>
       </c>
-      <c r="M84" s="174" t="str">
+      <c r="M84" s="167" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N84" s="175">
+      <c r="N84" s="168">
         <f t="shared" si="15"/>
         <v>-2.4154589371980673E-2</v>
       </c>
@@ -9428,11 +9419,11 @@
         <f t="shared" si="13"/>
         <v>197</v>
       </c>
-      <c r="M85" s="174" t="str">
+      <c r="M85" s="167" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N85" s="175">
+      <c r="N85" s="168">
         <f t="shared" si="15"/>
         <v>-2.4752475247524774E-2</v>
       </c>
@@ -9449,11 +9440,11 @@
         <f t="shared" si="13"/>
         <v>191</v>
       </c>
-      <c r="M86" s="174" t="str">
+      <c r="M86" s="167" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N86" s="175">
+      <c r="N86" s="168">
         <f t="shared" si="15"/>
         <v>-3.0456852791878153E-2</v>
       </c>
@@ -9470,11 +9461,11 @@
         <f t="shared" si="13"/>
         <v>186</v>
       </c>
-      <c r="M87" s="174" t="str">
+      <c r="M87" s="167" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N87" s="175">
+      <c r="N87" s="168">
         <f t="shared" si="15"/>
         <v>-2.6178010471204161E-2</v>
       </c>
@@ -9491,40 +9482,38 @@
         <f t="shared" si="13"/>
         <v>181</v>
       </c>
-      <c r="M88" s="174" t="str">
+      <c r="M88" s="167" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N88" s="175">
+      <c r="N88" s="168">
         <f t="shared" si="15"/>
         <v>-2.6881720430107503E-2</v>
       </c>
     </row>
     <row r="89" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F89" s="180"/>
-      <c r="G89" s="181" t="s">
+      <c r="F89" s="137"/>
+      <c r="G89" s="170"/>
+      <c r="H89" s="170" t="s">
         <v>100</v>
       </c>
-      <c r="H89" s="182" t="s">
-        <v>18</v>
-      </c>
-      <c r="I89" s="137"/>
-      <c r="J89" s="176">
+      <c r="I89" s="169"/>
+      <c r="J89" s="178">
         <v>66</v>
       </c>
-      <c r="K89" s="177">
+      <c r="K89" s="179">
         <f t="shared" si="17"/>
         <v>175.80000000000007</v>
       </c>
-      <c r="L89" s="177">
+      <c r="L89" s="179">
         <f t="shared" si="13"/>
         <v>176</v>
       </c>
-      <c r="M89" s="178" t="str">
+      <c r="M89" s="180" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N89" s="179">
+      <c r="N89" s="181">
         <f t="shared" si="15"/>
         <v>-2.7624309392265234E-2</v>
       </c>
@@ -9541,11 +9530,11 @@
         <f t="shared" si="13"/>
         <v>171</v>
       </c>
-      <c r="M90" s="174" t="str">
+      <c r="M90" s="167" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N90" s="175">
+      <c r="N90" s="168">
         <f t="shared" si="15"/>
         <v>-2.8409090909090939E-2</v>
       </c>
@@ -9562,11 +9551,11 @@
         <f t="shared" si="13"/>
         <v>165</v>
       </c>
-      <c r="M91" s="174" t="str">
+      <c r="M91" s="167" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N91" s="175">
+      <c r="N91" s="168">
         <f t="shared" si="15"/>
         <v>-3.5087719298245612E-2</v>
       </c>
@@ -9583,11 +9572,11 @@
         <f t="shared" si="13"/>
         <v>160</v>
       </c>
-      <c r="M92" s="174" t="str">
+      <c r="M92" s="167" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N92" s="175">
+      <c r="N92" s="168">
         <f t="shared" si="15"/>
         <v>-3.0303030303030276E-2</v>
       </c>

--- a/electronics/worksheets/Open-Boiler.xlsx
+++ b/electronics/worksheets/Open-Boiler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\casanovg\Desktop\open-boiler-testbed\electronics\worksheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcasanova\Source\Repos\GitHub\open-boiler\electronics\worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49B1E74-9C42-4B83-82E7-2A52B8F82CA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BECB4A-7B5D-4CF3-AEE4-68AE62310D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="1500" windowWidth="20880" windowHeight="13410" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T7335D Datasheet" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Power combinations" sheetId="6" r:id="rId7"/>
     <sheet name="Heat Levels" sheetId="15" r:id="rId8"/>
     <sheet name="NTC table" sheetId="14" r:id="rId9"/>
+    <sheet name="Spending comparison" sheetId="16" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Heat Levels'!$B$8:$G$8</definedName>
@@ -30,12 +31,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -218,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="121">
   <si>
     <t xml:space="preserve"> NTC thermistor table</t>
   </si>
@@ -522,18 +517,79 @@
   <si>
     <t>ch_water_overheat</t>
   </si>
+  <si>
+    <t>Valve-1 only</t>
+  </si>
+  <si>
+    <t>Cycles/H</t>
+  </si>
+  <si>
+    <t>Flame (Sec)</t>
+  </si>
+  <si>
+    <t>Pump (Sec)</t>
+  </si>
+  <si>
+    <t>Cycle (Sec)</t>
+  </si>
+  <si>
+    <t>Valve-2 only</t>
+  </si>
+  <si>
+    <t>Tot Flm (Sec)</t>
+  </si>
+  <si>
+    <t>Tot Pmp (Sec)</t>
+  </si>
+  <si>
+    <t>Spending/H</t>
+  </si>
+  <si>
+    <t>G20 m3</t>
+  </si>
+  <si>
+    <t>CH_ON_DUTY_1</t>
+  </si>
+  <si>
+    <t>CH_ON_DUTY_2</t>
+  </si>
+  <si>
+    <t>CH_CYCLE</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Pump (2=60W)</t>
+  </si>
+  <si>
+    <t>Fan AH</t>
+  </si>
+  <si>
+    <t>Pump AH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,8 +703,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,6 +806,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,7 +1130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1346,6 +1422,12 @@
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1367,12 +1449,37 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1556,7 +1663,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1681,7 +1788,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-AR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1942,7 +2049,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1980,7 +2087,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="946760864"/>
@@ -2087,7 +2194,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2125,7 +2232,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="950936336"/>
@@ -2158,7 +2265,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-AR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
           </c:dispUnitsLbl>
@@ -2198,7 +2305,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2274,7 +2381,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2354,7 +2461,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-AR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2566,7 +2673,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2604,7 +2711,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="946760864"/>
@@ -2673,7 +2780,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2711,7 +2818,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="950936336"/>
@@ -2752,7 +2859,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4532,14 +4639,14 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="172"/>
-      <c r="D4" s="171" t="s">
+      <c r="C4" s="176"/>
+      <c r="D4" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="172"/>
+      <c r="E4" s="176"/>
       <c r="G4" s="18" t="str">
         <f>B4</f>
         <v>Temperature</v>
@@ -5785,6 +5892,231 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB50324-7DE5-47C5-908A-237EBE916E34}">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="137" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="137" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C1" s="186" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="186" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="186" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="193" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="191">
+        <f>60*60</f>
+        <v>3600</v>
+      </c>
+      <c r="I1" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C2" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="185" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="191" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="191" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="113" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="182" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="182" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="182" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="187" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="79"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="80">
+        <f>(7*60)+20</f>
+        <v>440</v>
+      </c>
+      <c r="D3" s="80">
+        <f>10*60</f>
+        <v>600</v>
+      </c>
+      <c r="E3" s="80">
+        <f>C3+D3</f>
+        <v>1040</v>
+      </c>
+      <c r="F3" s="192">
+        <f>C3*H3</f>
+        <v>1523.0769230769231</v>
+      </c>
+      <c r="G3" s="192">
+        <f>D3*H3</f>
+        <v>2076.9230769230771</v>
+      </c>
+      <c r="H3" s="82">
+        <f>$G$1/E3</f>
+        <v>3.4615384615384617</v>
+      </c>
+      <c r="I3" s="190">
+        <f>F3*O3/$G$1</f>
+        <v>0.36807692307692308</v>
+      </c>
+      <c r="J3" s="189">
+        <f>F3*$Q$3/$G$1</f>
+        <v>0.17346153846153847</v>
+      </c>
+      <c r="K3" s="196">
+        <f>(F3+G3)*Q6/$G$1</f>
+        <v>0.2727</v>
+      </c>
+      <c r="M3" s="183" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="41">
+        <v>7000</v>
+      </c>
+      <c r="O3" s="184">
+        <v>0.87</v>
+      </c>
+      <c r="Q3" s="188">
+        <v>0.41</v>
+      </c>
+      <c r="R3" s="79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="80">
+        <f>(1*60)+40</f>
+        <v>100</v>
+      </c>
+      <c r="D4" s="80">
+        <f>10*60</f>
+        <v>600</v>
+      </c>
+      <c r="E4" s="80">
+        <f>C4+D4</f>
+        <v>700</v>
+      </c>
+      <c r="F4" s="192">
+        <f>C4*H4</f>
+        <v>514.28571428571433</v>
+      </c>
+      <c r="G4" s="192">
+        <f>D4*H4</f>
+        <v>3085.7142857142858</v>
+      </c>
+      <c r="H4" s="82">
+        <f>$G$1/E4</f>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="I4" s="190">
+        <f>F4*O4/$G$1</f>
+        <v>0.20857142857142857</v>
+      </c>
+      <c r="J4" s="189">
+        <f>F4*$Q$3/$G$1</f>
+        <v>5.8571428571428573E-2</v>
+      </c>
+      <c r="K4" s="196">
+        <f>(F4+G4)*Q6/$G$1</f>
+        <v>0.2727</v>
+      </c>
+      <c r="M4" s="183" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="41">
+        <v>12000</v>
+      </c>
+      <c r="O4" s="184">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M5" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="41">
+        <v>20000</v>
+      </c>
+      <c r="O5" s="184">
+        <v>2.39</v>
+      </c>
+      <c r="Q5" s="194" t="s">
+        <v>118</v>
+      </c>
+      <c r="R5" s="195"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q6" s="188">
+        <v>0.2727</v>
+      </c>
+      <c r="R6" s="79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q5:R5"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6251,14 +6583,14 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="173" t="s">
+      <c r="B4" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="174"/>
-      <c r="D4" s="173" t="s">
+      <c r="C4" s="178"/>
+      <c r="D4" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="174"/>
+      <c r="E4" s="178"/>
       <c r="G4" s="22" t="str">
         <f>B4</f>
         <v>Temperature</v>
@@ -6690,10 +7022,10 @@
       <c r="E21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="175" t="s">
+      <c r="G21" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="176"/>
+      <c r="H21" s="180"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
@@ -7051,7 +7383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B29436D-DFE2-4DAF-A0BC-2A553066C113}">
   <dimension ref="B2:X148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="R87" sqref="R87"/>
     </sheetView>
   </sheetViews>
@@ -8867,7 +9199,7 @@
         <f t="shared" si="6"/>
         <v>-2.8205128205128216E-2</v>
       </c>
-      <c r="P61" s="177" t="s">
+      <c r="P61" s="181" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8891,7 +9223,7 @@
         <f t="shared" si="6"/>
         <v>-2.6385224274406371E-2</v>
       </c>
-      <c r="P62" s="177"/>
+      <c r="P62" s="181"/>
     </row>
     <row r="63" spans="7:16" x14ac:dyDescent="0.25">
       <c r="J63" s="84">
@@ -8914,7 +9246,7 @@
         <f t="shared" si="6"/>
         <v>-2.7100271002710064E-2</v>
       </c>
-      <c r="P63" s="177"/>
+      <c r="P63" s="181"/>
     </row>
     <row r="64" spans="7:16" x14ac:dyDescent="0.25">
       <c r="J64" s="97">
@@ -8936,7 +9268,7 @@
         <f t="shared" si="6"/>
         <v>-2.2284122562674091E-2</v>
       </c>
-      <c r="P64" s="177"/>
+      <c r="P64" s="181"/>
     </row>
     <row r="65" spans="7:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J65" s="97">
@@ -8958,7 +9290,7 @@
         <f t="shared" si="6"/>
         <v>-2.5641025641025661E-2</v>
       </c>
-      <c r="P65" s="177"/>
+      <c r="P65" s="181"/>
     </row>
     <row r="66" spans="7:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J66" s="97">
@@ -8980,7 +9312,7 @@
         <f t="shared" si="6"/>
         <v>-2.3391812865497075E-2</v>
       </c>
-      <c r="P66" s="177"/>
+      <c r="P66" s="181"/>
     </row>
     <row r="67" spans="7:24" x14ac:dyDescent="0.25">
       <c r="J67" s="97">
@@ -9002,7 +9334,7 @@
         <f t="shared" si="6"/>
         <v>-2.6946107784431184E-2</v>
       </c>
-      <c r="P67" s="177"/>
+      <c r="P67" s="181"/>
     </row>
     <row r="68" spans="7:24" x14ac:dyDescent="0.25">
       <c r="J68" s="97">
@@ -9024,7 +9356,7 @@
         <f t="shared" si="6"/>
         <v>-2.4615384615384595E-2</v>
       </c>
-      <c r="P68" s="177"/>
+      <c r="P68" s="181"/>
     </row>
     <row r="69" spans="7:24" x14ac:dyDescent="0.25">
       <c r="J69" s="97">
@@ -9046,7 +9378,7 @@
         <f t="shared" ref="N69:N132" si="15">(L69/L68)-1</f>
         <v>-2.8391167192429068E-2</v>
       </c>
-      <c r="P69" s="177"/>
+      <c r="P69" s="181"/>
     </row>
     <row r="70" spans="7:24" x14ac:dyDescent="0.25">
       <c r="J70" s="97">
@@ -9068,7 +9400,7 @@
         <f t="shared" si="15"/>
         <v>-2.5974025974025983E-2</v>
       </c>
-      <c r="P70" s="177"/>
+      <c r="P70" s="181"/>
     </row>
     <row r="71" spans="7:24" x14ac:dyDescent="0.25">
       <c r="J71" s="97">
@@ -9090,7 +9422,7 @@
         <f t="shared" si="15"/>
         <v>-3.0000000000000027E-2</v>
       </c>
-      <c r="P71" s="177"/>
+      <c r="P71" s="181"/>
     </row>
     <row r="72" spans="7:24" x14ac:dyDescent="0.25">
       <c r="J72" s="97">
@@ -9112,7 +9444,7 @@
         <f t="shared" si="15"/>
         <v>-2.7491408934707917E-2</v>
       </c>
-      <c r="P72" s="177"/>
+      <c r="P72" s="181"/>
       <c r="V72" t="s">
         <v>13</v>
       </c>
@@ -9141,7 +9473,7 @@
         <f t="shared" si="15"/>
         <v>-3.180212014134276E-2</v>
       </c>
-      <c r="P73" s="177"/>
+      <c r="P73" s="181"/>
       <c r="V73">
         <v>257</v>
       </c>
@@ -9172,7 +9504,7 @@
         <f t="shared" si="15"/>
         <v>-2.5547445255474477E-2</v>
       </c>
-      <c r="P74" s="177"/>
+      <c r="P74" s="181"/>
     </row>
     <row r="75" spans="7:24" x14ac:dyDescent="0.25">
       <c r="J75" s="97">
@@ -9194,7 +9526,7 @@
         <f t="shared" si="15"/>
         <v>-2.2471910112359605E-2</v>
       </c>
-      <c r="P75" s="177"/>
+      <c r="P75" s="181"/>
       <c r="V75">
         <v>300</v>
       </c>
@@ -9225,7 +9557,7 @@
         <f t="shared" si="15"/>
         <v>-2.6819923371647514E-2</v>
       </c>
-      <c r="P76" s="177"/>
+      <c r="P76" s="181"/>
     </row>
     <row r="77" spans="7:24" x14ac:dyDescent="0.25">
       <c r="J77" s="97">
@@ -9247,7 +9579,7 @@
         <f t="shared" si="15"/>
         <v>-2.7559055118110187E-2</v>
       </c>
-      <c r="P77" s="177"/>
+      <c r="P77" s="181"/>
     </row>
     <row r="78" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G78" s="128" t="s">
@@ -9274,7 +9606,7 @@
         <f t="shared" si="15"/>
         <v>-2.4291497975708509E-2</v>
       </c>
-      <c r="P78" s="177"/>
+      <c r="P78" s="181"/>
     </row>
     <row r="79" spans="7:24" x14ac:dyDescent="0.25">
       <c r="J79" s="85">
@@ -9498,22 +9830,22 @@
         <v>100</v>
       </c>
       <c r="I89" s="169"/>
-      <c r="J89" s="178">
+      <c r="J89" s="171">
         <v>66</v>
       </c>
-      <c r="K89" s="179">
+      <c r="K89" s="172">
         <f t="shared" si="17"/>
         <v>175.80000000000007</v>
       </c>
-      <c r="L89" s="179">
+      <c r="L89" s="172">
         <f t="shared" si="13"/>
         <v>176</v>
       </c>
-      <c r="M89" s="180" t="str">
+      <c r="M89" s="173" t="str">
         <f t="shared" si="14"/>
         <v>OK</v>
       </c>
-      <c r="N89" s="181">
+      <c r="N89" s="174">
         <f t="shared" si="15"/>
         <v>-2.7624309392265234E-2</v>
       </c>
